--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Files\ProgramPartListWeb\ProgramPartListWeb\Content\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7642997-A2BC-424F-AE40-1479C8CF2B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E46CF-7242-406A-B8D3-3EDC606E8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3015" windowWidth="20730" windowHeight="11040" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="OE">'[1]FA-LISTING'!#REF!</definedName>
     <definedName name="P">#REF!</definedName>
     <definedName name="P_M">'[1]FA-LISTING'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Forms!$A$1:$E$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Forms!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="SYS320N">#REF!</definedName>
     <definedName name="SYS320SLI">#REF!</definedName>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Production Patrol Inspection Report</t>
   </si>
@@ -147,15 +147,6 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t>Date Conducted:</t>
-  </si>
-  <si>
-    <t>Comment (Person In-Charge):</t>
-  </si>
-  <si>
-    <t>Inspector: _________________  Person In-Charge:____________________</t>
-  </si>
-  <si>
     <t>PGFY-00031 Form 2C</t>
   </si>
   <si>
@@ -174,10 +165,37 @@
     <t>adasdsadsasa</t>
   </si>
   <si>
-    <t xml:space="preserve">  Manager: L.A DATU</t>
+    <t>Registration No: asdsad</t>
   </si>
   <si>
-    <t>Registration No: asdsad</t>
+    <t>Person In-Charge:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manager: </t>
+  </si>
+  <si>
+    <t>ssdsdsss</t>
+  </si>
+  <si>
+    <t>asdsd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inspector: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comment (Person In-Charge):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date Conducted:</t>
   </si>
 </sst>
 </file>
@@ -212,11 +230,6 @@
     </font>
     <font>
       <sz val="32"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -271,6 +284,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -286,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -495,14 +514,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -511,51 +653,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,99 +692,194 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -691,247 +905,436 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1065436</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3306532</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
+      <xdr:rowOff>387803</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2">
+        <xdr:cNvPr id="12" name="Group 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4975D351-A5DB-4E1E-A5DF-6140BE2B68CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4639CF-BB94-44D4-35BE-7A0F6F4824D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
+        <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8168368" y="163286"/>
-          <a:ext cx="4540703" cy="1340303"/>
-          <a:chOff x="1412" y="312"/>
-          <a:chExt cx="476" cy="150"/>
+          <a:off x="8685436" y="216353"/>
+          <a:ext cx="4536621" cy="1333500"/>
+          <a:chOff x="8590186" y="149679"/>
+          <a:chExt cx="4540703" cy="1340303"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="Group 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120B0EEA-B46B-8D08-95E9-AF2DD5F0BBE7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB54018-7E0E-FEAE-A6E8-0A90DC8E99DE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="1412" y="312"/>
-            <a:ext cx="476" cy="150"/>
+            <a:off x="8590186" y="149679"/>
+            <a:ext cx="4540703" cy="1340303"/>
+            <a:chOff x="8168368" y="163286"/>
+            <a:chExt cx="4540703" cy="1340303"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="3" name="Group 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4975D351-A5DB-4E1E-A5DF-6140BE2B68CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr>
+              <a:grpSpLocks/>
+            </xdr:cNvGrpSpPr>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8168368" y="163286"/>
+              <a:ext cx="4540703" cy="1340303"/>
+              <a:chOff x="1412" y="312"/>
+              <a:chExt cx="476" cy="150"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="4" name="Rectangle 3">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120B0EEA-B46B-8D08-95E9-AF2DD5F0BBE7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1412" y="312"/>
+                <a:ext cx="476" cy="150"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="Rectangle 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5148AD9-4D8B-C3D8-4E4F-F82C04018E29}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1413" y="314"/>
+                <a:ext cx="158" cy="147"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Division Manager</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6" name="Rectangle 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E549E10-DF6E-D2E7-6CFC-FC7399DD0FCD}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1571" y="314"/>
+                <a:ext cx="158" cy="147"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>Department Manage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>r</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="Rectangle 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE10D46-85DA-31C3-9B65-ABE5CF996C9C}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeArrowheads="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1729" y="314"/>
+                <a:ext cx="158" cy="147"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>SV / JS / L</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="Line 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18C6852-EA22-3BA7-44D5-3C7F8D6E4BED}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr>
+                <a:spLocks noChangeShapeType="1"/>
+              </xdr:cNvSpPr>
+            </xdr:nvSpPr>
+            <xdr:spPr bwMode="auto">
+              <a:xfrm>
+                <a:off x="1412" y="421"/>
+                <a:ext cx="475" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a:ln>
+              <a:extLst>
+                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                    <a:noFill/>
+                  </a14:hiddenFill>
+                </a:ext>
+              </a:extLst>
+            </xdr:spPr>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB2D5B3-2A90-8A2F-0B87-E6E1735C78F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8477250" y="870856"/>
+              <a:ext cx="917111" cy="280205"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100"/>
+                <a:t>C.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1200" baseline="0"/>
+                <a:t>VALDIVIA</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-PH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EB4EF1-09CC-45F9-A977-2786295276F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10112827" y="859971"/>
+              <a:ext cx="752642" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100"/>
+                <a:t>L</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+                <a:t> .A DATU</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-PH" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4">
+          <xdr:cNvPr id="9" name="Line 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5148AD9-4D8B-C3D8-4E4F-F82C04018E29}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1413" y="314"/>
-            <a:ext cx="158" cy="147"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Division Manager</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E549E10-DF6E-D2E7-6CFC-FC7399DD0FCD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1571" y="314"/>
-            <a:ext cx="158" cy="147"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>Department Manage</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:t>r</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE10D46-85DA-31C3-9B65-ABE5CF996C9C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1729" y="314"/>
-            <a:ext cx="158" cy="147"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>SV / JS / L</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Line 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18C6852-EA22-3BA7-44D5-3C7F8D6E4BED}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B662108-5C29-4F3E-9630-BE841DEB88D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -940,9 +1343,9 @@
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1412" y="421"/>
-            <a:ext cx="475" cy="0"/>
+          <a:xfrm flipH="1">
+            <a:off x="11661321" y="182338"/>
+            <a:ext cx="1421948" cy="919842"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -968,190 +1371,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4475389</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>20411</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B662108-5C29-4F3E-9630-BE841DEB88D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="11224532" y="195943"/>
-          <a:ext cx="1504950" cy="947057"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1728107</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="917111" cy="280205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB2D5B3-2A90-8A2F-0B87-E6E1735C78F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8477250" y="870856"/>
-          <a:ext cx="917111" cy="280205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1100"/>
-            <a:t>C.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1200" baseline="0"/>
-            <a:t>VALDIVIA</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3363684</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752642" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EB4EF1-09CC-45F9-A977-2786295276F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10112827" y="859971"/>
-          <a:ext cx="752642" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1100"/>
-            <a:t>L</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
-            <a:t> .A DATU</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-PH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4076,997 +4295,1178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3551491-82E5-466D-BB94-B2F2C019D599}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="89.28515625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="2" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="30"/>
-    <col min="7" max="256" width="9.140625" style="14"/>
-    <col min="257" max="257" width="1.5703125" style="14" customWidth="1"/>
-    <col min="258" max="258" width="9.28515625" style="14" customWidth="1"/>
-    <col min="259" max="259" width="88.5703125" style="14" customWidth="1"/>
-    <col min="260" max="260" width="89.28515625" style="14" customWidth="1"/>
-    <col min="261" max="261" width="2" style="14" customWidth="1"/>
-    <col min="262" max="512" width="9.140625" style="14"/>
-    <col min="513" max="513" width="1.5703125" style="14" customWidth="1"/>
-    <col min="514" max="514" width="9.28515625" style="14" customWidth="1"/>
-    <col min="515" max="515" width="88.5703125" style="14" customWidth="1"/>
-    <col min="516" max="516" width="89.28515625" style="14" customWidth="1"/>
-    <col min="517" max="517" width="2" style="14" customWidth="1"/>
-    <col min="518" max="768" width="9.140625" style="14"/>
-    <col min="769" max="769" width="1.5703125" style="14" customWidth="1"/>
-    <col min="770" max="770" width="9.28515625" style="14" customWidth="1"/>
-    <col min="771" max="771" width="88.5703125" style="14" customWidth="1"/>
-    <col min="772" max="772" width="89.28515625" style="14" customWidth="1"/>
-    <col min="773" max="773" width="2" style="14" customWidth="1"/>
-    <col min="774" max="1024" width="9.140625" style="14"/>
-    <col min="1025" max="1025" width="1.5703125" style="14" customWidth="1"/>
-    <col min="1026" max="1026" width="9.28515625" style="14" customWidth="1"/>
-    <col min="1027" max="1027" width="88.5703125" style="14" customWidth="1"/>
-    <col min="1028" max="1028" width="89.28515625" style="14" customWidth="1"/>
-    <col min="1029" max="1029" width="2" style="14" customWidth="1"/>
-    <col min="1030" max="1280" width="9.140625" style="14"/>
-    <col min="1281" max="1281" width="1.5703125" style="14" customWidth="1"/>
-    <col min="1282" max="1282" width="9.28515625" style="14" customWidth="1"/>
-    <col min="1283" max="1283" width="88.5703125" style="14" customWidth="1"/>
-    <col min="1284" max="1284" width="89.28515625" style="14" customWidth="1"/>
-    <col min="1285" max="1285" width="2" style="14" customWidth="1"/>
-    <col min="1286" max="1536" width="9.140625" style="14"/>
-    <col min="1537" max="1537" width="1.5703125" style="14" customWidth="1"/>
-    <col min="1538" max="1538" width="9.28515625" style="14" customWidth="1"/>
-    <col min="1539" max="1539" width="88.5703125" style="14" customWidth="1"/>
-    <col min="1540" max="1540" width="89.28515625" style="14" customWidth="1"/>
-    <col min="1541" max="1541" width="2" style="14" customWidth="1"/>
-    <col min="1542" max="1792" width="9.140625" style="14"/>
-    <col min="1793" max="1793" width="1.5703125" style="14" customWidth="1"/>
-    <col min="1794" max="1794" width="9.28515625" style="14" customWidth="1"/>
-    <col min="1795" max="1795" width="88.5703125" style="14" customWidth="1"/>
-    <col min="1796" max="1796" width="89.28515625" style="14" customWidth="1"/>
-    <col min="1797" max="1797" width="2" style="14" customWidth="1"/>
-    <col min="1798" max="2048" width="9.140625" style="14"/>
-    <col min="2049" max="2049" width="1.5703125" style="14" customWidth="1"/>
-    <col min="2050" max="2050" width="9.28515625" style="14" customWidth="1"/>
-    <col min="2051" max="2051" width="88.5703125" style="14" customWidth="1"/>
-    <col min="2052" max="2052" width="89.28515625" style="14" customWidth="1"/>
-    <col min="2053" max="2053" width="2" style="14" customWidth="1"/>
-    <col min="2054" max="2304" width="9.140625" style="14"/>
-    <col min="2305" max="2305" width="1.5703125" style="14" customWidth="1"/>
-    <col min="2306" max="2306" width="9.28515625" style="14" customWidth="1"/>
-    <col min="2307" max="2307" width="88.5703125" style="14" customWidth="1"/>
-    <col min="2308" max="2308" width="89.28515625" style="14" customWidth="1"/>
-    <col min="2309" max="2309" width="2" style="14" customWidth="1"/>
-    <col min="2310" max="2560" width="9.140625" style="14"/>
-    <col min="2561" max="2561" width="1.5703125" style="14" customWidth="1"/>
-    <col min="2562" max="2562" width="9.28515625" style="14" customWidth="1"/>
-    <col min="2563" max="2563" width="88.5703125" style="14" customWidth="1"/>
-    <col min="2564" max="2564" width="89.28515625" style="14" customWidth="1"/>
-    <col min="2565" max="2565" width="2" style="14" customWidth="1"/>
-    <col min="2566" max="2816" width="9.140625" style="14"/>
-    <col min="2817" max="2817" width="1.5703125" style="14" customWidth="1"/>
-    <col min="2818" max="2818" width="9.28515625" style="14" customWidth="1"/>
-    <col min="2819" max="2819" width="88.5703125" style="14" customWidth="1"/>
-    <col min="2820" max="2820" width="89.28515625" style="14" customWidth="1"/>
-    <col min="2821" max="2821" width="2" style="14" customWidth="1"/>
-    <col min="2822" max="3072" width="9.140625" style="14"/>
-    <col min="3073" max="3073" width="1.5703125" style="14" customWidth="1"/>
-    <col min="3074" max="3074" width="9.28515625" style="14" customWidth="1"/>
-    <col min="3075" max="3075" width="88.5703125" style="14" customWidth="1"/>
-    <col min="3076" max="3076" width="89.28515625" style="14" customWidth="1"/>
-    <col min="3077" max="3077" width="2" style="14" customWidth="1"/>
-    <col min="3078" max="3328" width="9.140625" style="14"/>
-    <col min="3329" max="3329" width="1.5703125" style="14" customWidth="1"/>
-    <col min="3330" max="3330" width="9.28515625" style="14" customWidth="1"/>
-    <col min="3331" max="3331" width="88.5703125" style="14" customWidth="1"/>
-    <col min="3332" max="3332" width="89.28515625" style="14" customWidth="1"/>
-    <col min="3333" max="3333" width="2" style="14" customWidth="1"/>
-    <col min="3334" max="3584" width="9.140625" style="14"/>
-    <col min="3585" max="3585" width="1.5703125" style="14" customWidth="1"/>
-    <col min="3586" max="3586" width="9.28515625" style="14" customWidth="1"/>
-    <col min="3587" max="3587" width="88.5703125" style="14" customWidth="1"/>
-    <col min="3588" max="3588" width="89.28515625" style="14" customWidth="1"/>
-    <col min="3589" max="3589" width="2" style="14" customWidth="1"/>
-    <col min="3590" max="3840" width="9.140625" style="14"/>
-    <col min="3841" max="3841" width="1.5703125" style="14" customWidth="1"/>
-    <col min="3842" max="3842" width="9.28515625" style="14" customWidth="1"/>
-    <col min="3843" max="3843" width="88.5703125" style="14" customWidth="1"/>
-    <col min="3844" max="3844" width="89.28515625" style="14" customWidth="1"/>
-    <col min="3845" max="3845" width="2" style="14" customWidth="1"/>
-    <col min="3846" max="4096" width="9.140625" style="14"/>
-    <col min="4097" max="4097" width="1.5703125" style="14" customWidth="1"/>
-    <col min="4098" max="4098" width="9.28515625" style="14" customWidth="1"/>
-    <col min="4099" max="4099" width="88.5703125" style="14" customWidth="1"/>
-    <col min="4100" max="4100" width="89.28515625" style="14" customWidth="1"/>
-    <col min="4101" max="4101" width="2" style="14" customWidth="1"/>
-    <col min="4102" max="4352" width="9.140625" style="14"/>
-    <col min="4353" max="4353" width="1.5703125" style="14" customWidth="1"/>
-    <col min="4354" max="4354" width="9.28515625" style="14" customWidth="1"/>
-    <col min="4355" max="4355" width="88.5703125" style="14" customWidth="1"/>
-    <col min="4356" max="4356" width="89.28515625" style="14" customWidth="1"/>
-    <col min="4357" max="4357" width="2" style="14" customWidth="1"/>
-    <col min="4358" max="4608" width="9.140625" style="14"/>
-    <col min="4609" max="4609" width="1.5703125" style="14" customWidth="1"/>
-    <col min="4610" max="4610" width="9.28515625" style="14" customWidth="1"/>
-    <col min="4611" max="4611" width="88.5703125" style="14" customWidth="1"/>
-    <col min="4612" max="4612" width="89.28515625" style="14" customWidth="1"/>
-    <col min="4613" max="4613" width="2" style="14" customWidth="1"/>
-    <col min="4614" max="4864" width="9.140625" style="14"/>
-    <col min="4865" max="4865" width="1.5703125" style="14" customWidth="1"/>
-    <col min="4866" max="4866" width="9.28515625" style="14" customWidth="1"/>
-    <col min="4867" max="4867" width="88.5703125" style="14" customWidth="1"/>
-    <col min="4868" max="4868" width="89.28515625" style="14" customWidth="1"/>
-    <col min="4869" max="4869" width="2" style="14" customWidth="1"/>
-    <col min="4870" max="5120" width="9.140625" style="14"/>
-    <col min="5121" max="5121" width="1.5703125" style="14" customWidth="1"/>
-    <col min="5122" max="5122" width="9.28515625" style="14" customWidth="1"/>
-    <col min="5123" max="5123" width="88.5703125" style="14" customWidth="1"/>
-    <col min="5124" max="5124" width="89.28515625" style="14" customWidth="1"/>
-    <col min="5125" max="5125" width="2" style="14" customWidth="1"/>
-    <col min="5126" max="5376" width="9.140625" style="14"/>
-    <col min="5377" max="5377" width="1.5703125" style="14" customWidth="1"/>
-    <col min="5378" max="5378" width="9.28515625" style="14" customWidth="1"/>
-    <col min="5379" max="5379" width="88.5703125" style="14" customWidth="1"/>
-    <col min="5380" max="5380" width="89.28515625" style="14" customWidth="1"/>
-    <col min="5381" max="5381" width="2" style="14" customWidth="1"/>
-    <col min="5382" max="5632" width="9.140625" style="14"/>
-    <col min="5633" max="5633" width="1.5703125" style="14" customWidth="1"/>
-    <col min="5634" max="5634" width="9.28515625" style="14" customWidth="1"/>
-    <col min="5635" max="5635" width="88.5703125" style="14" customWidth="1"/>
-    <col min="5636" max="5636" width="89.28515625" style="14" customWidth="1"/>
-    <col min="5637" max="5637" width="2" style="14" customWidth="1"/>
-    <col min="5638" max="5888" width="9.140625" style="14"/>
-    <col min="5889" max="5889" width="1.5703125" style="14" customWidth="1"/>
-    <col min="5890" max="5890" width="9.28515625" style="14" customWidth="1"/>
-    <col min="5891" max="5891" width="88.5703125" style="14" customWidth="1"/>
-    <col min="5892" max="5892" width="89.28515625" style="14" customWidth="1"/>
-    <col min="5893" max="5893" width="2" style="14" customWidth="1"/>
-    <col min="5894" max="6144" width="9.140625" style="14"/>
-    <col min="6145" max="6145" width="1.5703125" style="14" customWidth="1"/>
-    <col min="6146" max="6146" width="9.28515625" style="14" customWidth="1"/>
-    <col min="6147" max="6147" width="88.5703125" style="14" customWidth="1"/>
-    <col min="6148" max="6148" width="89.28515625" style="14" customWidth="1"/>
-    <col min="6149" max="6149" width="2" style="14" customWidth="1"/>
-    <col min="6150" max="6400" width="9.140625" style="14"/>
-    <col min="6401" max="6401" width="1.5703125" style="14" customWidth="1"/>
-    <col min="6402" max="6402" width="9.28515625" style="14" customWidth="1"/>
-    <col min="6403" max="6403" width="88.5703125" style="14" customWidth="1"/>
-    <col min="6404" max="6404" width="89.28515625" style="14" customWidth="1"/>
-    <col min="6405" max="6405" width="2" style="14" customWidth="1"/>
-    <col min="6406" max="6656" width="9.140625" style="14"/>
-    <col min="6657" max="6657" width="1.5703125" style="14" customWidth="1"/>
-    <col min="6658" max="6658" width="9.28515625" style="14" customWidth="1"/>
-    <col min="6659" max="6659" width="88.5703125" style="14" customWidth="1"/>
-    <col min="6660" max="6660" width="89.28515625" style="14" customWidth="1"/>
-    <col min="6661" max="6661" width="2" style="14" customWidth="1"/>
-    <col min="6662" max="6912" width="9.140625" style="14"/>
-    <col min="6913" max="6913" width="1.5703125" style="14" customWidth="1"/>
-    <col min="6914" max="6914" width="9.28515625" style="14" customWidth="1"/>
-    <col min="6915" max="6915" width="88.5703125" style="14" customWidth="1"/>
-    <col min="6916" max="6916" width="89.28515625" style="14" customWidth="1"/>
-    <col min="6917" max="6917" width="2" style="14" customWidth="1"/>
-    <col min="6918" max="7168" width="9.140625" style="14"/>
-    <col min="7169" max="7169" width="1.5703125" style="14" customWidth="1"/>
-    <col min="7170" max="7170" width="9.28515625" style="14" customWidth="1"/>
-    <col min="7171" max="7171" width="88.5703125" style="14" customWidth="1"/>
-    <col min="7172" max="7172" width="89.28515625" style="14" customWidth="1"/>
-    <col min="7173" max="7173" width="2" style="14" customWidth="1"/>
-    <col min="7174" max="7424" width="9.140625" style="14"/>
-    <col min="7425" max="7425" width="1.5703125" style="14" customWidth="1"/>
-    <col min="7426" max="7426" width="9.28515625" style="14" customWidth="1"/>
-    <col min="7427" max="7427" width="88.5703125" style="14" customWidth="1"/>
-    <col min="7428" max="7428" width="89.28515625" style="14" customWidth="1"/>
-    <col min="7429" max="7429" width="2" style="14" customWidth="1"/>
-    <col min="7430" max="7680" width="9.140625" style="14"/>
-    <col min="7681" max="7681" width="1.5703125" style="14" customWidth="1"/>
-    <col min="7682" max="7682" width="9.28515625" style="14" customWidth="1"/>
-    <col min="7683" max="7683" width="88.5703125" style="14" customWidth="1"/>
-    <col min="7684" max="7684" width="89.28515625" style="14" customWidth="1"/>
-    <col min="7685" max="7685" width="2" style="14" customWidth="1"/>
-    <col min="7686" max="7936" width="9.140625" style="14"/>
-    <col min="7937" max="7937" width="1.5703125" style="14" customWidth="1"/>
-    <col min="7938" max="7938" width="9.28515625" style="14" customWidth="1"/>
-    <col min="7939" max="7939" width="88.5703125" style="14" customWidth="1"/>
-    <col min="7940" max="7940" width="89.28515625" style="14" customWidth="1"/>
-    <col min="7941" max="7941" width="2" style="14" customWidth="1"/>
-    <col min="7942" max="8192" width="9.140625" style="14"/>
-    <col min="8193" max="8193" width="1.5703125" style="14" customWidth="1"/>
-    <col min="8194" max="8194" width="9.28515625" style="14" customWidth="1"/>
-    <col min="8195" max="8195" width="88.5703125" style="14" customWidth="1"/>
-    <col min="8196" max="8196" width="89.28515625" style="14" customWidth="1"/>
-    <col min="8197" max="8197" width="2" style="14" customWidth="1"/>
-    <col min="8198" max="8448" width="9.140625" style="14"/>
-    <col min="8449" max="8449" width="1.5703125" style="14" customWidth="1"/>
-    <col min="8450" max="8450" width="9.28515625" style="14" customWidth="1"/>
-    <col min="8451" max="8451" width="88.5703125" style="14" customWidth="1"/>
-    <col min="8452" max="8452" width="89.28515625" style="14" customWidth="1"/>
-    <col min="8453" max="8453" width="2" style="14" customWidth="1"/>
-    <col min="8454" max="8704" width="9.140625" style="14"/>
-    <col min="8705" max="8705" width="1.5703125" style="14" customWidth="1"/>
-    <col min="8706" max="8706" width="9.28515625" style="14" customWidth="1"/>
-    <col min="8707" max="8707" width="88.5703125" style="14" customWidth="1"/>
-    <col min="8708" max="8708" width="89.28515625" style="14" customWidth="1"/>
-    <col min="8709" max="8709" width="2" style="14" customWidth="1"/>
-    <col min="8710" max="8960" width="9.140625" style="14"/>
-    <col min="8961" max="8961" width="1.5703125" style="14" customWidth="1"/>
-    <col min="8962" max="8962" width="9.28515625" style="14" customWidth="1"/>
-    <col min="8963" max="8963" width="88.5703125" style="14" customWidth="1"/>
-    <col min="8964" max="8964" width="89.28515625" style="14" customWidth="1"/>
-    <col min="8965" max="8965" width="2" style="14" customWidth="1"/>
-    <col min="8966" max="9216" width="9.140625" style="14"/>
-    <col min="9217" max="9217" width="1.5703125" style="14" customWidth="1"/>
-    <col min="9218" max="9218" width="9.28515625" style="14" customWidth="1"/>
-    <col min="9219" max="9219" width="88.5703125" style="14" customWidth="1"/>
-    <col min="9220" max="9220" width="89.28515625" style="14" customWidth="1"/>
-    <col min="9221" max="9221" width="2" style="14" customWidth="1"/>
-    <col min="9222" max="9472" width="9.140625" style="14"/>
-    <col min="9473" max="9473" width="1.5703125" style="14" customWidth="1"/>
-    <col min="9474" max="9474" width="9.28515625" style="14" customWidth="1"/>
-    <col min="9475" max="9475" width="88.5703125" style="14" customWidth="1"/>
-    <col min="9476" max="9476" width="89.28515625" style="14" customWidth="1"/>
-    <col min="9477" max="9477" width="2" style="14" customWidth="1"/>
-    <col min="9478" max="9728" width="9.140625" style="14"/>
-    <col min="9729" max="9729" width="1.5703125" style="14" customWidth="1"/>
-    <col min="9730" max="9730" width="9.28515625" style="14" customWidth="1"/>
-    <col min="9731" max="9731" width="88.5703125" style="14" customWidth="1"/>
-    <col min="9732" max="9732" width="89.28515625" style="14" customWidth="1"/>
-    <col min="9733" max="9733" width="2" style="14" customWidth="1"/>
-    <col min="9734" max="9984" width="9.140625" style="14"/>
-    <col min="9985" max="9985" width="1.5703125" style="14" customWidth="1"/>
-    <col min="9986" max="9986" width="9.28515625" style="14" customWidth="1"/>
-    <col min="9987" max="9987" width="88.5703125" style="14" customWidth="1"/>
-    <col min="9988" max="9988" width="89.28515625" style="14" customWidth="1"/>
-    <col min="9989" max="9989" width="2" style="14" customWidth="1"/>
-    <col min="9990" max="10240" width="9.140625" style="14"/>
-    <col min="10241" max="10241" width="1.5703125" style="14" customWidth="1"/>
-    <col min="10242" max="10242" width="9.28515625" style="14" customWidth="1"/>
-    <col min="10243" max="10243" width="88.5703125" style="14" customWidth="1"/>
-    <col min="10244" max="10244" width="89.28515625" style="14" customWidth="1"/>
-    <col min="10245" max="10245" width="2" style="14" customWidth="1"/>
-    <col min="10246" max="10496" width="9.140625" style="14"/>
-    <col min="10497" max="10497" width="1.5703125" style="14" customWidth="1"/>
-    <col min="10498" max="10498" width="9.28515625" style="14" customWidth="1"/>
-    <col min="10499" max="10499" width="88.5703125" style="14" customWidth="1"/>
-    <col min="10500" max="10500" width="89.28515625" style="14" customWidth="1"/>
-    <col min="10501" max="10501" width="2" style="14" customWidth="1"/>
-    <col min="10502" max="10752" width="9.140625" style="14"/>
-    <col min="10753" max="10753" width="1.5703125" style="14" customWidth="1"/>
-    <col min="10754" max="10754" width="9.28515625" style="14" customWidth="1"/>
-    <col min="10755" max="10755" width="88.5703125" style="14" customWidth="1"/>
-    <col min="10756" max="10756" width="89.28515625" style="14" customWidth="1"/>
-    <col min="10757" max="10757" width="2" style="14" customWidth="1"/>
-    <col min="10758" max="11008" width="9.140625" style="14"/>
-    <col min="11009" max="11009" width="1.5703125" style="14" customWidth="1"/>
-    <col min="11010" max="11010" width="9.28515625" style="14" customWidth="1"/>
-    <col min="11011" max="11011" width="88.5703125" style="14" customWidth="1"/>
-    <col min="11012" max="11012" width="89.28515625" style="14" customWidth="1"/>
-    <col min="11013" max="11013" width="2" style="14" customWidth="1"/>
-    <col min="11014" max="11264" width="9.140625" style="14"/>
-    <col min="11265" max="11265" width="1.5703125" style="14" customWidth="1"/>
-    <col min="11266" max="11266" width="9.28515625" style="14" customWidth="1"/>
-    <col min="11267" max="11267" width="88.5703125" style="14" customWidth="1"/>
-    <col min="11268" max="11268" width="89.28515625" style="14" customWidth="1"/>
-    <col min="11269" max="11269" width="2" style="14" customWidth="1"/>
-    <col min="11270" max="11520" width="9.140625" style="14"/>
-    <col min="11521" max="11521" width="1.5703125" style="14" customWidth="1"/>
-    <col min="11522" max="11522" width="9.28515625" style="14" customWidth="1"/>
-    <col min="11523" max="11523" width="88.5703125" style="14" customWidth="1"/>
-    <col min="11524" max="11524" width="89.28515625" style="14" customWidth="1"/>
-    <col min="11525" max="11525" width="2" style="14" customWidth="1"/>
-    <col min="11526" max="11776" width="9.140625" style="14"/>
-    <col min="11777" max="11777" width="1.5703125" style="14" customWidth="1"/>
-    <col min="11778" max="11778" width="9.28515625" style="14" customWidth="1"/>
-    <col min="11779" max="11779" width="88.5703125" style="14" customWidth="1"/>
-    <col min="11780" max="11780" width="89.28515625" style="14" customWidth="1"/>
-    <col min="11781" max="11781" width="2" style="14" customWidth="1"/>
-    <col min="11782" max="12032" width="9.140625" style="14"/>
-    <col min="12033" max="12033" width="1.5703125" style="14" customWidth="1"/>
-    <col min="12034" max="12034" width="9.28515625" style="14" customWidth="1"/>
-    <col min="12035" max="12035" width="88.5703125" style="14" customWidth="1"/>
-    <col min="12036" max="12036" width="89.28515625" style="14" customWidth="1"/>
-    <col min="12037" max="12037" width="2" style="14" customWidth="1"/>
-    <col min="12038" max="12288" width="9.140625" style="14"/>
-    <col min="12289" max="12289" width="1.5703125" style="14" customWidth="1"/>
-    <col min="12290" max="12290" width="9.28515625" style="14" customWidth="1"/>
-    <col min="12291" max="12291" width="88.5703125" style="14" customWidth="1"/>
-    <col min="12292" max="12292" width="89.28515625" style="14" customWidth="1"/>
-    <col min="12293" max="12293" width="2" style="14" customWidth="1"/>
-    <col min="12294" max="12544" width="9.140625" style="14"/>
-    <col min="12545" max="12545" width="1.5703125" style="14" customWidth="1"/>
-    <col min="12546" max="12546" width="9.28515625" style="14" customWidth="1"/>
-    <col min="12547" max="12547" width="88.5703125" style="14" customWidth="1"/>
-    <col min="12548" max="12548" width="89.28515625" style="14" customWidth="1"/>
-    <col min="12549" max="12549" width="2" style="14" customWidth="1"/>
-    <col min="12550" max="12800" width="9.140625" style="14"/>
-    <col min="12801" max="12801" width="1.5703125" style="14" customWidth="1"/>
-    <col min="12802" max="12802" width="9.28515625" style="14" customWidth="1"/>
-    <col min="12803" max="12803" width="88.5703125" style="14" customWidth="1"/>
-    <col min="12804" max="12804" width="89.28515625" style="14" customWidth="1"/>
-    <col min="12805" max="12805" width="2" style="14" customWidth="1"/>
-    <col min="12806" max="13056" width="9.140625" style="14"/>
-    <col min="13057" max="13057" width="1.5703125" style="14" customWidth="1"/>
-    <col min="13058" max="13058" width="9.28515625" style="14" customWidth="1"/>
-    <col min="13059" max="13059" width="88.5703125" style="14" customWidth="1"/>
-    <col min="13060" max="13060" width="89.28515625" style="14" customWidth="1"/>
-    <col min="13061" max="13061" width="2" style="14" customWidth="1"/>
-    <col min="13062" max="13312" width="9.140625" style="14"/>
-    <col min="13313" max="13313" width="1.5703125" style="14" customWidth="1"/>
-    <col min="13314" max="13314" width="9.28515625" style="14" customWidth="1"/>
-    <col min="13315" max="13315" width="88.5703125" style="14" customWidth="1"/>
-    <col min="13316" max="13316" width="89.28515625" style="14" customWidth="1"/>
-    <col min="13317" max="13317" width="2" style="14" customWidth="1"/>
-    <col min="13318" max="13568" width="9.140625" style="14"/>
-    <col min="13569" max="13569" width="1.5703125" style="14" customWidth="1"/>
-    <col min="13570" max="13570" width="9.28515625" style="14" customWidth="1"/>
-    <col min="13571" max="13571" width="88.5703125" style="14" customWidth="1"/>
-    <col min="13572" max="13572" width="89.28515625" style="14" customWidth="1"/>
-    <col min="13573" max="13573" width="2" style="14" customWidth="1"/>
-    <col min="13574" max="13824" width="9.140625" style="14"/>
-    <col min="13825" max="13825" width="1.5703125" style="14" customWidth="1"/>
-    <col min="13826" max="13826" width="9.28515625" style="14" customWidth="1"/>
-    <col min="13827" max="13827" width="88.5703125" style="14" customWidth="1"/>
-    <col min="13828" max="13828" width="89.28515625" style="14" customWidth="1"/>
-    <col min="13829" max="13829" width="2" style="14" customWidth="1"/>
-    <col min="13830" max="14080" width="9.140625" style="14"/>
-    <col min="14081" max="14081" width="1.5703125" style="14" customWidth="1"/>
-    <col min="14082" max="14082" width="9.28515625" style="14" customWidth="1"/>
-    <col min="14083" max="14083" width="88.5703125" style="14" customWidth="1"/>
-    <col min="14084" max="14084" width="89.28515625" style="14" customWidth="1"/>
-    <col min="14085" max="14085" width="2" style="14" customWidth="1"/>
-    <col min="14086" max="14336" width="9.140625" style="14"/>
-    <col min="14337" max="14337" width="1.5703125" style="14" customWidth="1"/>
-    <col min="14338" max="14338" width="9.28515625" style="14" customWidth="1"/>
-    <col min="14339" max="14339" width="88.5703125" style="14" customWidth="1"/>
-    <col min="14340" max="14340" width="89.28515625" style="14" customWidth="1"/>
-    <col min="14341" max="14341" width="2" style="14" customWidth="1"/>
-    <col min="14342" max="14592" width="9.140625" style="14"/>
-    <col min="14593" max="14593" width="1.5703125" style="14" customWidth="1"/>
-    <col min="14594" max="14594" width="9.28515625" style="14" customWidth="1"/>
-    <col min="14595" max="14595" width="88.5703125" style="14" customWidth="1"/>
-    <col min="14596" max="14596" width="89.28515625" style="14" customWidth="1"/>
-    <col min="14597" max="14597" width="2" style="14" customWidth="1"/>
-    <col min="14598" max="14848" width="9.140625" style="14"/>
-    <col min="14849" max="14849" width="1.5703125" style="14" customWidth="1"/>
-    <col min="14850" max="14850" width="9.28515625" style="14" customWidth="1"/>
-    <col min="14851" max="14851" width="88.5703125" style="14" customWidth="1"/>
-    <col min="14852" max="14852" width="89.28515625" style="14" customWidth="1"/>
-    <col min="14853" max="14853" width="2" style="14" customWidth="1"/>
-    <col min="14854" max="15104" width="9.140625" style="14"/>
-    <col min="15105" max="15105" width="1.5703125" style="14" customWidth="1"/>
-    <col min="15106" max="15106" width="9.28515625" style="14" customWidth="1"/>
-    <col min="15107" max="15107" width="88.5703125" style="14" customWidth="1"/>
-    <col min="15108" max="15108" width="89.28515625" style="14" customWidth="1"/>
-    <col min="15109" max="15109" width="2" style="14" customWidth="1"/>
-    <col min="15110" max="15360" width="9.140625" style="14"/>
-    <col min="15361" max="15361" width="1.5703125" style="14" customWidth="1"/>
-    <col min="15362" max="15362" width="9.28515625" style="14" customWidth="1"/>
-    <col min="15363" max="15363" width="88.5703125" style="14" customWidth="1"/>
-    <col min="15364" max="15364" width="89.28515625" style="14" customWidth="1"/>
-    <col min="15365" max="15365" width="2" style="14" customWidth="1"/>
-    <col min="15366" max="15616" width="9.140625" style="14"/>
-    <col min="15617" max="15617" width="1.5703125" style="14" customWidth="1"/>
-    <col min="15618" max="15618" width="9.28515625" style="14" customWidth="1"/>
-    <col min="15619" max="15619" width="88.5703125" style="14" customWidth="1"/>
-    <col min="15620" max="15620" width="89.28515625" style="14" customWidth="1"/>
-    <col min="15621" max="15621" width="2" style="14" customWidth="1"/>
-    <col min="15622" max="15872" width="9.140625" style="14"/>
-    <col min="15873" max="15873" width="1.5703125" style="14" customWidth="1"/>
-    <col min="15874" max="15874" width="9.28515625" style="14" customWidth="1"/>
-    <col min="15875" max="15875" width="88.5703125" style="14" customWidth="1"/>
-    <col min="15876" max="15876" width="89.28515625" style="14" customWidth="1"/>
-    <col min="15877" max="15877" width="2" style="14" customWidth="1"/>
-    <col min="15878" max="16128" width="9.140625" style="14"/>
-    <col min="16129" max="16129" width="1.5703125" style="14" customWidth="1"/>
-    <col min="16130" max="16130" width="9.28515625" style="14" customWidth="1"/>
-    <col min="16131" max="16131" width="88.5703125" style="14" customWidth="1"/>
-    <col min="16132" max="16132" width="89.28515625" style="14" customWidth="1"/>
-    <col min="16133" max="16133" width="2" style="14" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="2.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="22"/>
+    <col min="10" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.28515625" style="9" customWidth="1"/>
+    <col min="13" max="256" width="9.140625" style="9"/>
+    <col min="257" max="257" width="1.5703125" style="9" customWidth="1"/>
+    <col min="258" max="258" width="9.28515625" style="9" customWidth="1"/>
+    <col min="259" max="259" width="88.5703125" style="9" customWidth="1"/>
+    <col min="260" max="260" width="89.28515625" style="9" customWidth="1"/>
+    <col min="261" max="261" width="2" style="9" customWidth="1"/>
+    <col min="262" max="512" width="9.140625" style="9"/>
+    <col min="513" max="513" width="1.5703125" style="9" customWidth="1"/>
+    <col min="514" max="514" width="9.28515625" style="9" customWidth="1"/>
+    <col min="515" max="515" width="88.5703125" style="9" customWidth="1"/>
+    <col min="516" max="516" width="89.28515625" style="9" customWidth="1"/>
+    <col min="517" max="517" width="2" style="9" customWidth="1"/>
+    <col min="518" max="768" width="9.140625" style="9"/>
+    <col min="769" max="769" width="1.5703125" style="9" customWidth="1"/>
+    <col min="770" max="770" width="9.28515625" style="9" customWidth="1"/>
+    <col min="771" max="771" width="88.5703125" style="9" customWidth="1"/>
+    <col min="772" max="772" width="89.28515625" style="9" customWidth="1"/>
+    <col min="773" max="773" width="2" style="9" customWidth="1"/>
+    <col min="774" max="1024" width="9.140625" style="9"/>
+    <col min="1025" max="1025" width="1.5703125" style="9" customWidth="1"/>
+    <col min="1026" max="1026" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="88.5703125" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="89.28515625" style="9" customWidth="1"/>
+    <col min="1029" max="1029" width="2" style="9" customWidth="1"/>
+    <col min="1030" max="1280" width="9.140625" style="9"/>
+    <col min="1281" max="1281" width="1.5703125" style="9" customWidth="1"/>
+    <col min="1282" max="1282" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="88.5703125" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="89.28515625" style="9" customWidth="1"/>
+    <col min="1285" max="1285" width="2" style="9" customWidth="1"/>
+    <col min="1286" max="1536" width="9.140625" style="9"/>
+    <col min="1537" max="1537" width="1.5703125" style="9" customWidth="1"/>
+    <col min="1538" max="1538" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="88.5703125" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="89.28515625" style="9" customWidth="1"/>
+    <col min="1541" max="1541" width="2" style="9" customWidth="1"/>
+    <col min="1542" max="1792" width="9.140625" style="9"/>
+    <col min="1793" max="1793" width="1.5703125" style="9" customWidth="1"/>
+    <col min="1794" max="1794" width="9.28515625" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="88.5703125" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="89.28515625" style="9" customWidth="1"/>
+    <col min="1797" max="1797" width="2" style="9" customWidth="1"/>
+    <col min="1798" max="2048" width="9.140625" style="9"/>
+    <col min="2049" max="2049" width="1.5703125" style="9" customWidth="1"/>
+    <col min="2050" max="2050" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="88.5703125" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="89.28515625" style="9" customWidth="1"/>
+    <col min="2053" max="2053" width="2" style="9" customWidth="1"/>
+    <col min="2054" max="2304" width="9.140625" style="9"/>
+    <col min="2305" max="2305" width="1.5703125" style="9" customWidth="1"/>
+    <col min="2306" max="2306" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="88.5703125" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="89.28515625" style="9" customWidth="1"/>
+    <col min="2309" max="2309" width="2" style="9" customWidth="1"/>
+    <col min="2310" max="2560" width="9.140625" style="9"/>
+    <col min="2561" max="2561" width="1.5703125" style="9" customWidth="1"/>
+    <col min="2562" max="2562" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="88.5703125" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="89.28515625" style="9" customWidth="1"/>
+    <col min="2565" max="2565" width="2" style="9" customWidth="1"/>
+    <col min="2566" max="2816" width="9.140625" style="9"/>
+    <col min="2817" max="2817" width="1.5703125" style="9" customWidth="1"/>
+    <col min="2818" max="2818" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="88.5703125" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="89.28515625" style="9" customWidth="1"/>
+    <col min="2821" max="2821" width="2" style="9" customWidth="1"/>
+    <col min="2822" max="3072" width="9.140625" style="9"/>
+    <col min="3073" max="3073" width="1.5703125" style="9" customWidth="1"/>
+    <col min="3074" max="3074" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="88.5703125" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="89.28515625" style="9" customWidth="1"/>
+    <col min="3077" max="3077" width="2" style="9" customWidth="1"/>
+    <col min="3078" max="3328" width="9.140625" style="9"/>
+    <col min="3329" max="3329" width="1.5703125" style="9" customWidth="1"/>
+    <col min="3330" max="3330" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="88.5703125" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="89.28515625" style="9" customWidth="1"/>
+    <col min="3333" max="3333" width="2" style="9" customWidth="1"/>
+    <col min="3334" max="3584" width="9.140625" style="9"/>
+    <col min="3585" max="3585" width="1.5703125" style="9" customWidth="1"/>
+    <col min="3586" max="3586" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="88.5703125" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="89.28515625" style="9" customWidth="1"/>
+    <col min="3589" max="3589" width="2" style="9" customWidth="1"/>
+    <col min="3590" max="3840" width="9.140625" style="9"/>
+    <col min="3841" max="3841" width="1.5703125" style="9" customWidth="1"/>
+    <col min="3842" max="3842" width="9.28515625" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="88.5703125" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="89.28515625" style="9" customWidth="1"/>
+    <col min="3845" max="3845" width="2" style="9" customWidth="1"/>
+    <col min="3846" max="4096" width="9.140625" style="9"/>
+    <col min="4097" max="4097" width="1.5703125" style="9" customWidth="1"/>
+    <col min="4098" max="4098" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="88.5703125" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="89.28515625" style="9" customWidth="1"/>
+    <col min="4101" max="4101" width="2" style="9" customWidth="1"/>
+    <col min="4102" max="4352" width="9.140625" style="9"/>
+    <col min="4353" max="4353" width="1.5703125" style="9" customWidth="1"/>
+    <col min="4354" max="4354" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="88.5703125" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="89.28515625" style="9" customWidth="1"/>
+    <col min="4357" max="4357" width="2" style="9" customWidth="1"/>
+    <col min="4358" max="4608" width="9.140625" style="9"/>
+    <col min="4609" max="4609" width="1.5703125" style="9" customWidth="1"/>
+    <col min="4610" max="4610" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="88.5703125" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="89.28515625" style="9" customWidth="1"/>
+    <col min="4613" max="4613" width="2" style="9" customWidth="1"/>
+    <col min="4614" max="4864" width="9.140625" style="9"/>
+    <col min="4865" max="4865" width="1.5703125" style="9" customWidth="1"/>
+    <col min="4866" max="4866" width="9.28515625" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="88.5703125" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="89.28515625" style="9" customWidth="1"/>
+    <col min="4869" max="4869" width="2" style="9" customWidth="1"/>
+    <col min="4870" max="5120" width="9.140625" style="9"/>
+    <col min="5121" max="5121" width="1.5703125" style="9" customWidth="1"/>
+    <col min="5122" max="5122" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="88.5703125" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="89.28515625" style="9" customWidth="1"/>
+    <col min="5125" max="5125" width="2" style="9" customWidth="1"/>
+    <col min="5126" max="5376" width="9.140625" style="9"/>
+    <col min="5377" max="5377" width="1.5703125" style="9" customWidth="1"/>
+    <col min="5378" max="5378" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="88.5703125" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="89.28515625" style="9" customWidth="1"/>
+    <col min="5381" max="5381" width="2" style="9" customWidth="1"/>
+    <col min="5382" max="5632" width="9.140625" style="9"/>
+    <col min="5633" max="5633" width="1.5703125" style="9" customWidth="1"/>
+    <col min="5634" max="5634" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="88.5703125" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="89.28515625" style="9" customWidth="1"/>
+    <col min="5637" max="5637" width="2" style="9" customWidth="1"/>
+    <col min="5638" max="5888" width="9.140625" style="9"/>
+    <col min="5889" max="5889" width="1.5703125" style="9" customWidth="1"/>
+    <col min="5890" max="5890" width="9.28515625" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="88.5703125" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="89.28515625" style="9" customWidth="1"/>
+    <col min="5893" max="5893" width="2" style="9" customWidth="1"/>
+    <col min="5894" max="6144" width="9.140625" style="9"/>
+    <col min="6145" max="6145" width="1.5703125" style="9" customWidth="1"/>
+    <col min="6146" max="6146" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="88.5703125" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="89.28515625" style="9" customWidth="1"/>
+    <col min="6149" max="6149" width="2" style="9" customWidth="1"/>
+    <col min="6150" max="6400" width="9.140625" style="9"/>
+    <col min="6401" max="6401" width="1.5703125" style="9" customWidth="1"/>
+    <col min="6402" max="6402" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="88.5703125" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="89.28515625" style="9" customWidth="1"/>
+    <col min="6405" max="6405" width="2" style="9" customWidth="1"/>
+    <col min="6406" max="6656" width="9.140625" style="9"/>
+    <col min="6657" max="6657" width="1.5703125" style="9" customWidth="1"/>
+    <col min="6658" max="6658" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="88.5703125" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="89.28515625" style="9" customWidth="1"/>
+    <col min="6661" max="6661" width="2" style="9" customWidth="1"/>
+    <col min="6662" max="6912" width="9.140625" style="9"/>
+    <col min="6913" max="6913" width="1.5703125" style="9" customWidth="1"/>
+    <col min="6914" max="6914" width="9.28515625" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="88.5703125" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="89.28515625" style="9" customWidth="1"/>
+    <col min="6917" max="6917" width="2" style="9" customWidth="1"/>
+    <col min="6918" max="7168" width="9.140625" style="9"/>
+    <col min="7169" max="7169" width="1.5703125" style="9" customWidth="1"/>
+    <col min="7170" max="7170" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="88.5703125" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="89.28515625" style="9" customWidth="1"/>
+    <col min="7173" max="7173" width="2" style="9" customWidth="1"/>
+    <col min="7174" max="7424" width="9.140625" style="9"/>
+    <col min="7425" max="7425" width="1.5703125" style="9" customWidth="1"/>
+    <col min="7426" max="7426" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="88.5703125" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="89.28515625" style="9" customWidth="1"/>
+    <col min="7429" max="7429" width="2" style="9" customWidth="1"/>
+    <col min="7430" max="7680" width="9.140625" style="9"/>
+    <col min="7681" max="7681" width="1.5703125" style="9" customWidth="1"/>
+    <col min="7682" max="7682" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="88.5703125" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="89.28515625" style="9" customWidth="1"/>
+    <col min="7685" max="7685" width="2" style="9" customWidth="1"/>
+    <col min="7686" max="7936" width="9.140625" style="9"/>
+    <col min="7937" max="7937" width="1.5703125" style="9" customWidth="1"/>
+    <col min="7938" max="7938" width="9.28515625" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="88.5703125" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="89.28515625" style="9" customWidth="1"/>
+    <col min="7941" max="7941" width="2" style="9" customWidth="1"/>
+    <col min="7942" max="8192" width="9.140625" style="9"/>
+    <col min="8193" max="8193" width="1.5703125" style="9" customWidth="1"/>
+    <col min="8194" max="8194" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="88.5703125" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="89.28515625" style="9" customWidth="1"/>
+    <col min="8197" max="8197" width="2" style="9" customWidth="1"/>
+    <col min="8198" max="8448" width="9.140625" style="9"/>
+    <col min="8449" max="8449" width="1.5703125" style="9" customWidth="1"/>
+    <col min="8450" max="8450" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="88.5703125" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="89.28515625" style="9" customWidth="1"/>
+    <col min="8453" max="8453" width="2" style="9" customWidth="1"/>
+    <col min="8454" max="8704" width="9.140625" style="9"/>
+    <col min="8705" max="8705" width="1.5703125" style="9" customWidth="1"/>
+    <col min="8706" max="8706" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="88.5703125" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="89.28515625" style="9" customWidth="1"/>
+    <col min="8709" max="8709" width="2" style="9" customWidth="1"/>
+    <col min="8710" max="8960" width="9.140625" style="9"/>
+    <col min="8961" max="8961" width="1.5703125" style="9" customWidth="1"/>
+    <col min="8962" max="8962" width="9.28515625" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="88.5703125" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="89.28515625" style="9" customWidth="1"/>
+    <col min="8965" max="8965" width="2" style="9" customWidth="1"/>
+    <col min="8966" max="9216" width="9.140625" style="9"/>
+    <col min="9217" max="9217" width="1.5703125" style="9" customWidth="1"/>
+    <col min="9218" max="9218" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="88.5703125" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="89.28515625" style="9" customWidth="1"/>
+    <col min="9221" max="9221" width="2" style="9" customWidth="1"/>
+    <col min="9222" max="9472" width="9.140625" style="9"/>
+    <col min="9473" max="9473" width="1.5703125" style="9" customWidth="1"/>
+    <col min="9474" max="9474" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="88.5703125" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="89.28515625" style="9" customWidth="1"/>
+    <col min="9477" max="9477" width="2" style="9" customWidth="1"/>
+    <col min="9478" max="9728" width="9.140625" style="9"/>
+    <col min="9729" max="9729" width="1.5703125" style="9" customWidth="1"/>
+    <col min="9730" max="9730" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="88.5703125" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="89.28515625" style="9" customWidth="1"/>
+    <col min="9733" max="9733" width="2" style="9" customWidth="1"/>
+    <col min="9734" max="9984" width="9.140625" style="9"/>
+    <col min="9985" max="9985" width="1.5703125" style="9" customWidth="1"/>
+    <col min="9986" max="9986" width="9.28515625" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="88.5703125" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="89.28515625" style="9" customWidth="1"/>
+    <col min="9989" max="9989" width="2" style="9" customWidth="1"/>
+    <col min="9990" max="10240" width="9.140625" style="9"/>
+    <col min="10241" max="10241" width="1.5703125" style="9" customWidth="1"/>
+    <col min="10242" max="10242" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="88.5703125" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="89.28515625" style="9" customWidth="1"/>
+    <col min="10245" max="10245" width="2" style="9" customWidth="1"/>
+    <col min="10246" max="10496" width="9.140625" style="9"/>
+    <col min="10497" max="10497" width="1.5703125" style="9" customWidth="1"/>
+    <col min="10498" max="10498" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="88.5703125" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="89.28515625" style="9" customWidth="1"/>
+    <col min="10501" max="10501" width="2" style="9" customWidth="1"/>
+    <col min="10502" max="10752" width="9.140625" style="9"/>
+    <col min="10753" max="10753" width="1.5703125" style="9" customWidth="1"/>
+    <col min="10754" max="10754" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="88.5703125" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="89.28515625" style="9" customWidth="1"/>
+    <col min="10757" max="10757" width="2" style="9" customWidth="1"/>
+    <col min="10758" max="11008" width="9.140625" style="9"/>
+    <col min="11009" max="11009" width="1.5703125" style="9" customWidth="1"/>
+    <col min="11010" max="11010" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="88.5703125" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="89.28515625" style="9" customWidth="1"/>
+    <col min="11013" max="11013" width="2" style="9" customWidth="1"/>
+    <col min="11014" max="11264" width="9.140625" style="9"/>
+    <col min="11265" max="11265" width="1.5703125" style="9" customWidth="1"/>
+    <col min="11266" max="11266" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="88.5703125" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="89.28515625" style="9" customWidth="1"/>
+    <col min="11269" max="11269" width="2" style="9" customWidth="1"/>
+    <col min="11270" max="11520" width="9.140625" style="9"/>
+    <col min="11521" max="11521" width="1.5703125" style="9" customWidth="1"/>
+    <col min="11522" max="11522" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="88.5703125" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="89.28515625" style="9" customWidth="1"/>
+    <col min="11525" max="11525" width="2" style="9" customWidth="1"/>
+    <col min="11526" max="11776" width="9.140625" style="9"/>
+    <col min="11777" max="11777" width="1.5703125" style="9" customWidth="1"/>
+    <col min="11778" max="11778" width="9.28515625" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="88.5703125" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="89.28515625" style="9" customWidth="1"/>
+    <col min="11781" max="11781" width="2" style="9" customWidth="1"/>
+    <col min="11782" max="12032" width="9.140625" style="9"/>
+    <col min="12033" max="12033" width="1.5703125" style="9" customWidth="1"/>
+    <col min="12034" max="12034" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="88.5703125" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="89.28515625" style="9" customWidth="1"/>
+    <col min="12037" max="12037" width="2" style="9" customWidth="1"/>
+    <col min="12038" max="12288" width="9.140625" style="9"/>
+    <col min="12289" max="12289" width="1.5703125" style="9" customWidth="1"/>
+    <col min="12290" max="12290" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="88.5703125" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="89.28515625" style="9" customWidth="1"/>
+    <col min="12293" max="12293" width="2" style="9" customWidth="1"/>
+    <col min="12294" max="12544" width="9.140625" style="9"/>
+    <col min="12545" max="12545" width="1.5703125" style="9" customWidth="1"/>
+    <col min="12546" max="12546" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="88.5703125" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="89.28515625" style="9" customWidth="1"/>
+    <col min="12549" max="12549" width="2" style="9" customWidth="1"/>
+    <col min="12550" max="12800" width="9.140625" style="9"/>
+    <col min="12801" max="12801" width="1.5703125" style="9" customWidth="1"/>
+    <col min="12802" max="12802" width="9.28515625" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="88.5703125" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="89.28515625" style="9" customWidth="1"/>
+    <col min="12805" max="12805" width="2" style="9" customWidth="1"/>
+    <col min="12806" max="13056" width="9.140625" style="9"/>
+    <col min="13057" max="13057" width="1.5703125" style="9" customWidth="1"/>
+    <col min="13058" max="13058" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="88.5703125" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="89.28515625" style="9" customWidth="1"/>
+    <col min="13061" max="13061" width="2" style="9" customWidth="1"/>
+    <col min="13062" max="13312" width="9.140625" style="9"/>
+    <col min="13313" max="13313" width="1.5703125" style="9" customWidth="1"/>
+    <col min="13314" max="13314" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="88.5703125" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="89.28515625" style="9" customWidth="1"/>
+    <col min="13317" max="13317" width="2" style="9" customWidth="1"/>
+    <col min="13318" max="13568" width="9.140625" style="9"/>
+    <col min="13569" max="13569" width="1.5703125" style="9" customWidth="1"/>
+    <col min="13570" max="13570" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="88.5703125" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="89.28515625" style="9" customWidth="1"/>
+    <col min="13573" max="13573" width="2" style="9" customWidth="1"/>
+    <col min="13574" max="13824" width="9.140625" style="9"/>
+    <col min="13825" max="13825" width="1.5703125" style="9" customWidth="1"/>
+    <col min="13826" max="13826" width="9.28515625" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="88.5703125" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="89.28515625" style="9" customWidth="1"/>
+    <col min="13829" max="13829" width="2" style="9" customWidth="1"/>
+    <col min="13830" max="14080" width="9.140625" style="9"/>
+    <col min="14081" max="14081" width="1.5703125" style="9" customWidth="1"/>
+    <col min="14082" max="14082" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="88.5703125" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="89.28515625" style="9" customWidth="1"/>
+    <col min="14085" max="14085" width="2" style="9" customWidth="1"/>
+    <col min="14086" max="14336" width="9.140625" style="9"/>
+    <col min="14337" max="14337" width="1.5703125" style="9" customWidth="1"/>
+    <col min="14338" max="14338" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="88.5703125" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="89.28515625" style="9" customWidth="1"/>
+    <col min="14341" max="14341" width="2" style="9" customWidth="1"/>
+    <col min="14342" max="14592" width="9.140625" style="9"/>
+    <col min="14593" max="14593" width="1.5703125" style="9" customWidth="1"/>
+    <col min="14594" max="14594" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="88.5703125" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="89.28515625" style="9" customWidth="1"/>
+    <col min="14597" max="14597" width="2" style="9" customWidth="1"/>
+    <col min="14598" max="14848" width="9.140625" style="9"/>
+    <col min="14849" max="14849" width="1.5703125" style="9" customWidth="1"/>
+    <col min="14850" max="14850" width="9.28515625" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="88.5703125" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="89.28515625" style="9" customWidth="1"/>
+    <col min="14853" max="14853" width="2" style="9" customWidth="1"/>
+    <col min="14854" max="15104" width="9.140625" style="9"/>
+    <col min="15105" max="15105" width="1.5703125" style="9" customWidth="1"/>
+    <col min="15106" max="15106" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="88.5703125" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="89.28515625" style="9" customWidth="1"/>
+    <col min="15109" max="15109" width="2" style="9" customWidth="1"/>
+    <col min="15110" max="15360" width="9.140625" style="9"/>
+    <col min="15361" max="15361" width="1.5703125" style="9" customWidth="1"/>
+    <col min="15362" max="15362" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="88.5703125" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="89.28515625" style="9" customWidth="1"/>
+    <col min="15365" max="15365" width="2" style="9" customWidth="1"/>
+    <col min="15366" max="15616" width="9.140625" style="9"/>
+    <col min="15617" max="15617" width="1.5703125" style="9" customWidth="1"/>
+    <col min="15618" max="15618" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="88.5703125" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="89.28515625" style="9" customWidth="1"/>
+    <col min="15621" max="15621" width="2" style="9" customWidth="1"/>
+    <col min="15622" max="15872" width="9.140625" style="9"/>
+    <col min="15873" max="15873" width="1.5703125" style="9" customWidth="1"/>
+    <col min="15874" max="15874" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="88.5703125" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="89.28515625" style="9" customWidth="1"/>
+    <col min="15877" max="15877" width="2" style="9" customWidth="1"/>
+    <col min="15878" max="16128" width="9.140625" style="9"/>
+    <col min="16129" max="16129" width="1.5703125" style="9" customWidth="1"/>
+    <col min="16130" max="16130" width="9.28515625" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="88.5703125" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="89.28515625" style="9" customWidth="1"/>
+    <col min="16133" max="16133" width="2" style="9" customWidth="1"/>
+    <col min="16134" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58" t="s">
-        <v>21</v>
+      <c r="B2" s="60" t="s">
+        <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="46" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="15"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="15"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
+      <c r="B41" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="41" t="s">
+        <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
+      <c r="D53" s="36" t="s">
+        <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:16" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="22"/>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="22"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="22"/>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="57" t="s">
+      <c r="E53" s="42"/>
+      <c r="F53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="52"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
-      <c r="B48" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="11" t="s">
+      <c r="C54" s="33"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="44"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="44"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="44"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="44"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="26"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="44"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="52"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-    </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-    </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-    </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="17"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="19"/>
-      <c r="D61" s="28"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="20"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="20"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="30"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="28"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="30"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="28"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="19"/>
-      <c r="D66" s="28"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="19"/>
-      <c r="D67" s="28"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="30"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="28"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="30"/>
-      <c r="C76" s="14"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E1:E1048576"/>
+  <mergeCells count="31">
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -5081,21 +5481,22 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D26:D32"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="D19:G25"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="D33:G40"/>
+    <mergeCell ref="D41:G47"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G11"/>
+    <mergeCell ref="D12:G18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.11811023622047244" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="68" min="1" max="5" man="1"/>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E46CF-7242-406A-B8D3-3EDC606E8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E8767-24BE-4B62-A008-185B07D8B600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -756,69 +756,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -850,6 +787,69 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4300,20 +4300,20 @@
   </sheetPr>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="53" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="24" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="21" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="35" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="49.85546875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2" style="44" customWidth="1"/>
+    <col min="8" max="8" width="2" style="53" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="22"/>
     <col min="10" max="11" width="9.140625" style="9"/>
     <col min="12" max="12" width="89.28515625" style="9" customWidth="1"/>
@@ -4701,46 +4701,46 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="44"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -4753,568 +4753,568 @@
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
       <c r="G5" s="74"/>
-      <c r="H5" s="44"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="75" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="76"/>
       <c r="F6" s="76"/>
       <c r="G6" s="77"/>
-      <c r="H6" s="44"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="78"/>
       <c r="E7" s="79"/>
       <c r="F7" s="79"/>
       <c r="G7" s="80"/>
-      <c r="H7" s="44"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="78"/>
       <c r="E8" s="79"/>
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="44"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="78"/>
       <c r="E9" s="79"/>
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
-      <c r="H9" s="44"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="78"/>
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
       <c r="G10" s="80"/>
-      <c r="H10" s="44"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="81"/>
       <c r="E11" s="82"/>
       <c r="F11" s="82"/>
       <c r="G11" s="83"/>
-      <c r="H11" s="44"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="44"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="15"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="15"/>
       <c r="N13" s="14"/>
       <c r="O13" s="18"/>
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="44"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="15"/>
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="44"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="44"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="44"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="44"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="44"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="44"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="44"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="44"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="44"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="44"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="44"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="44"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="59" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="44"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="44"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="44"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="44"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="44"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="44"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="51" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="44"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="44"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="44"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="44"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="44"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="44"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="44"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="44"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="57" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="44"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="44"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="44"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="44"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="44"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="44"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="53"/>
       <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="44"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="53"/>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="44"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="70" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="44"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="53"/>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="44"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="53"/>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:11" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="44"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="53"/>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:11" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="44"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="53"/>
       <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="67"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="41" t="s">
         <v>19</v>
       </c>
@@ -5326,78 +5326,78 @@
         <v>18</v>
       </c>
       <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
+      <c r="H53" s="53"/>
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="33"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="44"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="53"/>
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="32"/>
       <c r="C55" s="34"/>
       <c r="D55" s="30"/>
       <c r="E55" s="35"/>
       <c r="F55" s="25"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="44"/>
+      <c r="H55" s="53"/>
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="28"/>
       <c r="C56" s="11"/>
       <c r="D56" s="19"/>
       <c r="E56" s="35"/>
       <c r="F56" s="26"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="44"/>
+      <c r="H56" s="53"/>
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="28"/>
       <c r="C57" s="11"/>
       <c r="D57" s="19"/>
       <c r="E57" s="35"/>
       <c r="F57" s="26"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="44"/>
+      <c r="H57" s="53"/>
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="28"/>
       <c r="C58" s="11"/>
       <c r="D58" s="19"/>
       <c r="E58" s="35"/>
       <c r="F58" s="26"/>
       <c r="G58" s="38"/>
-      <c r="H58" s="44"/>
+      <c r="H58" s="53"/>
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="28"/>
       <c r="C59" s="11"/>
       <c r="D59" s="19"/>
       <c r="E59" s="35"/>
       <c r="F59" s="26"/>
-      <c r="H59" s="44"/>
+      <c r="H59" s="53"/>
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="28"/>
       <c r="C60" s="11"/>
       <c r="D60" s="19"/>
@@ -5406,7 +5406,7 @@
       <c r="G60" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="44"/>
+      <c r="H60" s="53"/>
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5447,8 +5447,8 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -5462,11 +5462,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="D19:G25"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="D33:G40"/>
+    <mergeCell ref="D41:G47"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G11"/>
+    <mergeCell ref="D12:G18"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -5483,16 +5488,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="D1:G4"/>
-    <mergeCell ref="D19:G25"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="D33:G40"/>
-    <mergeCell ref="D41:G47"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G11"/>
-    <mergeCell ref="D12:G18"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.11811023622047244" top="0" bottom="0" header="0" footer="0"/>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E8767-24BE-4B62-A008-185B07D8B600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E2CBB-D0B3-4371-B66A-0011A633299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -1371,6 +1371,70 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189140</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>273506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="SignaImage">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA8184F-9E8A-7BDE-8581-817D286C5F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7809140" y="18907125"/>
+          <a:ext cx="532740" cy="359231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4300,8 +4364,8 @@
   </sheetPr>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:G49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39E2CBB-D0B3-4371-B66A-0011A633299D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD69FC-90E6-4DB3-806B-55F8DEED2396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -756,6 +756,99 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -787,99 +880,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1376,13 +1376,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>189140</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:rowOff>527407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>721880</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>273506</xdr:rowOff>
+      <xdr:rowOff>311606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1397,8 +1397,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7809140" y="18907125"/>
-          <a:ext cx="532740" cy="359231"/>
+          <a:off x="7809140" y="18815407"/>
+          <a:ext cx="725260" cy="489049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,20 +4364,20 @@
   </sheetPr>
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="53" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="44" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="24" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="21" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="35" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="49.85546875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2" style="53" customWidth="1"/>
+    <col min="8" max="8" width="2" style="44" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="22"/>
     <col min="10" max="11" width="9.140625" style="9"/>
     <col min="12" max="12" width="89.28515625" style="9" customWidth="1"/>
@@ -4765,620 +4765,620 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="53"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="53"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="68"/>
+      <c r="D6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="53"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="53"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="53"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="53"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="53"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="53"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="53"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="15"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="53"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="15"/>
       <c r="N13" s="14"/>
       <c r="O13" s="18"/>
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="53"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="15"/>
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="53"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="53"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="70" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="53"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="53"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="53"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="53"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="44"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="53"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="53"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="53"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="53"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="58" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="53"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="53"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="53"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="53"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="53"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="53"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="70" t="s">
+      <c r="C33" s="67"/>
+      <c r="D33" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="53"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="53"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="53"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="53"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="44"/>
       <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="53"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="53"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="53"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="70" t="s">
+      <c r="C41" s="67"/>
+      <c r="D41" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="53"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="15"/>
     </row>
     <row r="42" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="53"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="53"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="53"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="53"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="44"/>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="53"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="53"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="44"/>
       <c r="I47" s="15"/>
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="44"/>
+      <c r="B48" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="44"/>
       <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="49" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="53"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="44"/>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="48" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="53"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="44"/>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:11" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="53"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="44"/>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:11" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="53"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="44"/>
       <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="77"/>
       <c r="C53" s="41" t="s">
         <v>19</v>
       </c>
@@ -5390,78 +5390,78 @@
         <v>18</v>
       </c>
       <c r="G53" s="43"/>
-      <c r="H53" s="53"/>
+      <c r="H53" s="44"/>
       <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="33"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="53"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="44"/>
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="32"/>
       <c r="C55" s="34"/>
       <c r="D55" s="30"/>
       <c r="E55" s="35"/>
       <c r="F55" s="25"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="53"/>
+      <c r="H55" s="44"/>
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="28"/>
       <c r="C56" s="11"/>
       <c r="D56" s="19"/>
       <c r="E56" s="35"/>
       <c r="F56" s="26"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="53"/>
+      <c r="H56" s="44"/>
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="28"/>
       <c r="C57" s="11"/>
       <c r="D57" s="19"/>
       <c r="E57" s="35"/>
       <c r="F57" s="26"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="53"/>
+      <c r="H57" s="44"/>
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="28"/>
       <c r="C58" s="11"/>
       <c r="D58" s="19"/>
       <c r="E58" s="35"/>
       <c r="F58" s="26"/>
       <c r="G58" s="38"/>
-      <c r="H58" s="53"/>
+      <c r="H58" s="44"/>
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="28"/>
       <c r="C59" s="11"/>
       <c r="D59" s="19"/>
       <c r="E59" s="35"/>
       <c r="F59" s="26"/>
-      <c r="H59" s="53"/>
+      <c r="H59" s="44"/>
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="28"/>
       <c r="C60" s="11"/>
       <c r="D60" s="19"/>
@@ -5470,7 +5470,7 @@
       <c r="G60" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="53"/>
+      <c r="H60" s="44"/>
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5511,8 +5511,8 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -5526,16 +5526,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="D1:G4"/>
-    <mergeCell ref="D19:G25"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="D33:G40"/>
-    <mergeCell ref="D41:G47"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G11"/>
-    <mergeCell ref="D12:G18"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -5552,11 +5547,16 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="D19:G25"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="D33:G40"/>
+    <mergeCell ref="D41:G47"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G11"/>
+    <mergeCell ref="D12:G18"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.11811023622047244" top="0" bottom="0" header="0" footer="0"/>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DD69FC-90E6-4DB3-806B-55F8DEED2396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62680D3-38D3-49FE-9902-FF75140B22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
   <sheets>
-    <sheet name="Forms" sheetId="4" r:id="rId1"/>
+    <sheet name="Forms" sheetId="5" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -37,8 +37,6 @@
     <definedName name="FORK">'[1]FA-LISTING'!#REF!</definedName>
     <definedName name="LANDIMP">'[1]FA-LISTING'!#REF!</definedName>
     <definedName name="LANDREV">'[1]FA-LISTING'!#REF!</definedName>
-    <definedName name="MgmtRevMaxSc" localSheetId="0">Forms!#REF!</definedName>
-    <definedName name="MgmtRevSc" localSheetId="0">Forms!#REF!</definedName>
     <definedName name="MV">'[1]FA-LISTING'!#REF!</definedName>
     <definedName name="OE">'[1]FA-LISTING'!#REF!</definedName>
     <definedName name="P">#REF!</definedName>
@@ -644,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -653,11 +651,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,19 +673,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,22 +890,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1065436</xdr:colOff>
+      <xdr:colOff>608236</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3306532</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1357</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>387803</xdr:rowOff>
+      <xdr:rowOff>187778</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11">
+        <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4639CF-BB94-44D4-35BE-7A0F6F4824D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9CD88B-496F-480E-95EE-D4A4989C76BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,18 +913,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8685436" y="216353"/>
-          <a:ext cx="4536621" cy="1333500"/>
+          <a:off x="8244111" y="244928"/>
+          <a:ext cx="5012871" cy="895350"/>
           <a:chOff x="8590186" y="149679"/>
           <a:chExt cx="4540703" cy="1340303"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10">
+          <xdr:cNvPr id="3" name="Group 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB54018-7E0E-FEAE-A6E8-0A90DC8E99DE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F9527A-7567-6666-1AB3-C2939F200E88}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -956,10 +940,10 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="3" name="Group 2">
+            <xdr:cNvPr id="5" name="Group 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4975D351-A5DB-4E1E-A5DF-6140BE2B68CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53038EBC-793D-4957-A783-16D429164C7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -977,10 +961,10 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="4" name="Rectangle 3">
+              <xdr:cNvPr id="8" name="Rectangle 7">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120B0EEA-B46B-8D08-95E9-AF2DD5F0BBE7}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1334A72A-62CB-5E73-CA24-8FD5DF0F18BC}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1011,10 +995,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="5" name="Rectangle 4">
+              <xdr:cNvPr id="9" name="Rectangle 8">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5148AD9-4D8B-C3D8-4E4F-F82C04018E29}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF0F84F-958E-D672-D974-C9C106E8E299}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1064,10 +1048,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="6" name="Rectangle 5">
+              <xdr:cNvPr id="10" name="Rectangle 9">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E549E10-DF6E-D2E7-6CFC-FC7399DD0FCD}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7761FF-5C8D-8465-F5C8-73C5E3B9C455}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1127,10 +1111,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="Rectangle 6">
+              <xdr:cNvPr id="11" name="Rectangle 10">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE10D46-85DA-31C3-9B65-ABE5CF996C9C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E805598D-FF1A-A4F2-E320-F241904C4036}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1180,10 +1164,10 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="Line 7">
+              <xdr:cNvPr id="12" name="Line 7">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18C6852-EA22-3BA7-44D5-3C7F8D6E4BED}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083B0199-1C3F-31BD-FF51-CBD7E30FD5A0}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -1220,10 +1204,10 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
+            <xdr:cNvPr id="6" name="TextBox 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB2D5B3-2A90-8A2F-0B87-E6E1735C78F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCB1CB3-F3B6-D5CD-1086-22BD63CAC42C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1277,10 +1261,10 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9">
+            <xdr:cNvPr id="7" name="TextBox 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EB4EF1-09CC-45F9-A977-2786295276F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D22C00B-4C31-AE39-FFC6-1A7C79616D81}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,10 +1315,10 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Line 8">
+          <xdr:cNvPr id="4" name="Line 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B662108-5C29-4F3E-9630-BE841DEB88D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A566871D-0075-F131-9123-6D06AF251D49}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1389,7 +1373,7 @@
         <xdr:cNvPr id="13" name="SignaImage">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA8184F-9E8A-7BDE-8581-817D286C5F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519BD32A-3159-4BF5-9172-110EB8A39D1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,1213 +4342,701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3551491-82E5-466D-BB94-B2F2C019D599}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3EFCFA-79D8-4EF9-BB37-3D635928219F}">
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:G54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="49.85546875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="2" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
-    <col min="10" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.28515625" style="9" customWidth="1"/>
-    <col min="13" max="256" width="9.140625" style="9"/>
-    <col min="257" max="257" width="1.5703125" style="9" customWidth="1"/>
-    <col min="258" max="258" width="9.28515625" style="9" customWidth="1"/>
-    <col min="259" max="259" width="88.5703125" style="9" customWidth="1"/>
-    <col min="260" max="260" width="89.28515625" style="9" customWidth="1"/>
-    <col min="261" max="261" width="2" style="9" customWidth="1"/>
-    <col min="262" max="512" width="9.140625" style="9"/>
-    <col min="513" max="513" width="1.5703125" style="9" customWidth="1"/>
-    <col min="514" max="514" width="9.28515625" style="9" customWidth="1"/>
-    <col min="515" max="515" width="88.5703125" style="9" customWidth="1"/>
-    <col min="516" max="516" width="89.28515625" style="9" customWidth="1"/>
-    <col min="517" max="517" width="2" style="9" customWidth="1"/>
-    <col min="518" max="768" width="9.140625" style="9"/>
-    <col min="769" max="769" width="1.5703125" style="9" customWidth="1"/>
-    <col min="770" max="770" width="9.28515625" style="9" customWidth="1"/>
-    <col min="771" max="771" width="88.5703125" style="9" customWidth="1"/>
-    <col min="772" max="772" width="89.28515625" style="9" customWidth="1"/>
-    <col min="773" max="773" width="2" style="9" customWidth="1"/>
-    <col min="774" max="1024" width="9.140625" style="9"/>
-    <col min="1025" max="1025" width="1.5703125" style="9" customWidth="1"/>
-    <col min="1026" max="1026" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1027" max="1027" width="88.5703125" style="9" customWidth="1"/>
-    <col min="1028" max="1028" width="89.28515625" style="9" customWidth="1"/>
-    <col min="1029" max="1029" width="2" style="9" customWidth="1"/>
-    <col min="1030" max="1280" width="9.140625" style="9"/>
-    <col min="1281" max="1281" width="1.5703125" style="9" customWidth="1"/>
-    <col min="1282" max="1282" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1283" max="1283" width="88.5703125" style="9" customWidth="1"/>
-    <col min="1284" max="1284" width="89.28515625" style="9" customWidth="1"/>
-    <col min="1285" max="1285" width="2" style="9" customWidth="1"/>
-    <col min="1286" max="1536" width="9.140625" style="9"/>
-    <col min="1537" max="1537" width="1.5703125" style="9" customWidth="1"/>
-    <col min="1538" max="1538" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1539" max="1539" width="88.5703125" style="9" customWidth="1"/>
-    <col min="1540" max="1540" width="89.28515625" style="9" customWidth="1"/>
-    <col min="1541" max="1541" width="2" style="9" customWidth="1"/>
-    <col min="1542" max="1792" width="9.140625" style="9"/>
-    <col min="1793" max="1793" width="1.5703125" style="9" customWidth="1"/>
-    <col min="1794" max="1794" width="9.28515625" style="9" customWidth="1"/>
-    <col min="1795" max="1795" width="88.5703125" style="9" customWidth="1"/>
-    <col min="1796" max="1796" width="89.28515625" style="9" customWidth="1"/>
-    <col min="1797" max="1797" width="2" style="9" customWidth="1"/>
-    <col min="1798" max="2048" width="9.140625" style="9"/>
-    <col min="2049" max="2049" width="1.5703125" style="9" customWidth="1"/>
-    <col min="2050" max="2050" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2051" max="2051" width="88.5703125" style="9" customWidth="1"/>
-    <col min="2052" max="2052" width="89.28515625" style="9" customWidth="1"/>
-    <col min="2053" max="2053" width="2" style="9" customWidth="1"/>
-    <col min="2054" max="2304" width="9.140625" style="9"/>
-    <col min="2305" max="2305" width="1.5703125" style="9" customWidth="1"/>
-    <col min="2306" max="2306" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2307" max="2307" width="88.5703125" style="9" customWidth="1"/>
-    <col min="2308" max="2308" width="89.28515625" style="9" customWidth="1"/>
-    <col min="2309" max="2309" width="2" style="9" customWidth="1"/>
-    <col min="2310" max="2560" width="9.140625" style="9"/>
-    <col min="2561" max="2561" width="1.5703125" style="9" customWidth="1"/>
-    <col min="2562" max="2562" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2563" max="2563" width="88.5703125" style="9" customWidth="1"/>
-    <col min="2564" max="2564" width="89.28515625" style="9" customWidth="1"/>
-    <col min="2565" max="2565" width="2" style="9" customWidth="1"/>
-    <col min="2566" max="2816" width="9.140625" style="9"/>
-    <col min="2817" max="2817" width="1.5703125" style="9" customWidth="1"/>
-    <col min="2818" max="2818" width="9.28515625" style="9" customWidth="1"/>
-    <col min="2819" max="2819" width="88.5703125" style="9" customWidth="1"/>
-    <col min="2820" max="2820" width="89.28515625" style="9" customWidth="1"/>
-    <col min="2821" max="2821" width="2" style="9" customWidth="1"/>
-    <col min="2822" max="3072" width="9.140625" style="9"/>
-    <col min="3073" max="3073" width="1.5703125" style="9" customWidth="1"/>
-    <col min="3074" max="3074" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3075" max="3075" width="88.5703125" style="9" customWidth="1"/>
-    <col min="3076" max="3076" width="89.28515625" style="9" customWidth="1"/>
-    <col min="3077" max="3077" width="2" style="9" customWidth="1"/>
-    <col min="3078" max="3328" width="9.140625" style="9"/>
-    <col min="3329" max="3329" width="1.5703125" style="9" customWidth="1"/>
-    <col min="3330" max="3330" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3331" max="3331" width="88.5703125" style="9" customWidth="1"/>
-    <col min="3332" max="3332" width="89.28515625" style="9" customWidth="1"/>
-    <col min="3333" max="3333" width="2" style="9" customWidth="1"/>
-    <col min="3334" max="3584" width="9.140625" style="9"/>
-    <col min="3585" max="3585" width="1.5703125" style="9" customWidth="1"/>
-    <col min="3586" max="3586" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3587" max="3587" width="88.5703125" style="9" customWidth="1"/>
-    <col min="3588" max="3588" width="89.28515625" style="9" customWidth="1"/>
-    <col min="3589" max="3589" width="2" style="9" customWidth="1"/>
-    <col min="3590" max="3840" width="9.140625" style="9"/>
-    <col min="3841" max="3841" width="1.5703125" style="9" customWidth="1"/>
-    <col min="3842" max="3842" width="9.28515625" style="9" customWidth="1"/>
-    <col min="3843" max="3843" width="88.5703125" style="9" customWidth="1"/>
-    <col min="3844" max="3844" width="89.28515625" style="9" customWidth="1"/>
-    <col min="3845" max="3845" width="2" style="9" customWidth="1"/>
-    <col min="3846" max="4096" width="9.140625" style="9"/>
-    <col min="4097" max="4097" width="1.5703125" style="9" customWidth="1"/>
-    <col min="4098" max="4098" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4099" max="4099" width="88.5703125" style="9" customWidth="1"/>
-    <col min="4100" max="4100" width="89.28515625" style="9" customWidth="1"/>
-    <col min="4101" max="4101" width="2" style="9" customWidth="1"/>
-    <col min="4102" max="4352" width="9.140625" style="9"/>
-    <col min="4353" max="4353" width="1.5703125" style="9" customWidth="1"/>
-    <col min="4354" max="4354" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4355" max="4355" width="88.5703125" style="9" customWidth="1"/>
-    <col min="4356" max="4356" width="89.28515625" style="9" customWidth="1"/>
-    <col min="4357" max="4357" width="2" style="9" customWidth="1"/>
-    <col min="4358" max="4608" width="9.140625" style="9"/>
-    <col min="4609" max="4609" width="1.5703125" style="9" customWidth="1"/>
-    <col min="4610" max="4610" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4611" max="4611" width="88.5703125" style="9" customWidth="1"/>
-    <col min="4612" max="4612" width="89.28515625" style="9" customWidth="1"/>
-    <col min="4613" max="4613" width="2" style="9" customWidth="1"/>
-    <col min="4614" max="4864" width="9.140625" style="9"/>
-    <col min="4865" max="4865" width="1.5703125" style="9" customWidth="1"/>
-    <col min="4866" max="4866" width="9.28515625" style="9" customWidth="1"/>
-    <col min="4867" max="4867" width="88.5703125" style="9" customWidth="1"/>
-    <col min="4868" max="4868" width="89.28515625" style="9" customWidth="1"/>
-    <col min="4869" max="4869" width="2" style="9" customWidth="1"/>
-    <col min="4870" max="5120" width="9.140625" style="9"/>
-    <col min="5121" max="5121" width="1.5703125" style="9" customWidth="1"/>
-    <col min="5122" max="5122" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5123" max="5123" width="88.5703125" style="9" customWidth="1"/>
-    <col min="5124" max="5124" width="89.28515625" style="9" customWidth="1"/>
-    <col min="5125" max="5125" width="2" style="9" customWidth="1"/>
-    <col min="5126" max="5376" width="9.140625" style="9"/>
-    <col min="5377" max="5377" width="1.5703125" style="9" customWidth="1"/>
-    <col min="5378" max="5378" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5379" max="5379" width="88.5703125" style="9" customWidth="1"/>
-    <col min="5380" max="5380" width="89.28515625" style="9" customWidth="1"/>
-    <col min="5381" max="5381" width="2" style="9" customWidth="1"/>
-    <col min="5382" max="5632" width="9.140625" style="9"/>
-    <col min="5633" max="5633" width="1.5703125" style="9" customWidth="1"/>
-    <col min="5634" max="5634" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5635" max="5635" width="88.5703125" style="9" customWidth="1"/>
-    <col min="5636" max="5636" width="89.28515625" style="9" customWidth="1"/>
-    <col min="5637" max="5637" width="2" style="9" customWidth="1"/>
-    <col min="5638" max="5888" width="9.140625" style="9"/>
-    <col min="5889" max="5889" width="1.5703125" style="9" customWidth="1"/>
-    <col min="5890" max="5890" width="9.28515625" style="9" customWidth="1"/>
-    <col min="5891" max="5891" width="88.5703125" style="9" customWidth="1"/>
-    <col min="5892" max="5892" width="89.28515625" style="9" customWidth="1"/>
-    <col min="5893" max="5893" width="2" style="9" customWidth="1"/>
-    <col min="5894" max="6144" width="9.140625" style="9"/>
-    <col min="6145" max="6145" width="1.5703125" style="9" customWidth="1"/>
-    <col min="6146" max="6146" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6147" max="6147" width="88.5703125" style="9" customWidth="1"/>
-    <col min="6148" max="6148" width="89.28515625" style="9" customWidth="1"/>
-    <col min="6149" max="6149" width="2" style="9" customWidth="1"/>
-    <col min="6150" max="6400" width="9.140625" style="9"/>
-    <col min="6401" max="6401" width="1.5703125" style="9" customWidth="1"/>
-    <col min="6402" max="6402" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6403" max="6403" width="88.5703125" style="9" customWidth="1"/>
-    <col min="6404" max="6404" width="89.28515625" style="9" customWidth="1"/>
-    <col min="6405" max="6405" width="2" style="9" customWidth="1"/>
-    <col min="6406" max="6656" width="9.140625" style="9"/>
-    <col min="6657" max="6657" width="1.5703125" style="9" customWidth="1"/>
-    <col min="6658" max="6658" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6659" max="6659" width="88.5703125" style="9" customWidth="1"/>
-    <col min="6660" max="6660" width="89.28515625" style="9" customWidth="1"/>
-    <col min="6661" max="6661" width="2" style="9" customWidth="1"/>
-    <col min="6662" max="6912" width="9.140625" style="9"/>
-    <col min="6913" max="6913" width="1.5703125" style="9" customWidth="1"/>
-    <col min="6914" max="6914" width="9.28515625" style="9" customWidth="1"/>
-    <col min="6915" max="6915" width="88.5703125" style="9" customWidth="1"/>
-    <col min="6916" max="6916" width="89.28515625" style="9" customWidth="1"/>
-    <col min="6917" max="6917" width="2" style="9" customWidth="1"/>
-    <col min="6918" max="7168" width="9.140625" style="9"/>
-    <col min="7169" max="7169" width="1.5703125" style="9" customWidth="1"/>
-    <col min="7170" max="7170" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7171" max="7171" width="88.5703125" style="9" customWidth="1"/>
-    <col min="7172" max="7172" width="89.28515625" style="9" customWidth="1"/>
-    <col min="7173" max="7173" width="2" style="9" customWidth="1"/>
-    <col min="7174" max="7424" width="9.140625" style="9"/>
-    <col min="7425" max="7425" width="1.5703125" style="9" customWidth="1"/>
-    <col min="7426" max="7426" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7427" max="7427" width="88.5703125" style="9" customWidth="1"/>
-    <col min="7428" max="7428" width="89.28515625" style="9" customWidth="1"/>
-    <col min="7429" max="7429" width="2" style="9" customWidth="1"/>
-    <col min="7430" max="7680" width="9.140625" style="9"/>
-    <col min="7681" max="7681" width="1.5703125" style="9" customWidth="1"/>
-    <col min="7682" max="7682" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7683" max="7683" width="88.5703125" style="9" customWidth="1"/>
-    <col min="7684" max="7684" width="89.28515625" style="9" customWidth="1"/>
-    <col min="7685" max="7685" width="2" style="9" customWidth="1"/>
-    <col min="7686" max="7936" width="9.140625" style="9"/>
-    <col min="7937" max="7937" width="1.5703125" style="9" customWidth="1"/>
-    <col min="7938" max="7938" width="9.28515625" style="9" customWidth="1"/>
-    <col min="7939" max="7939" width="88.5703125" style="9" customWidth="1"/>
-    <col min="7940" max="7940" width="89.28515625" style="9" customWidth="1"/>
-    <col min="7941" max="7941" width="2" style="9" customWidth="1"/>
-    <col min="7942" max="8192" width="9.140625" style="9"/>
-    <col min="8193" max="8193" width="1.5703125" style="9" customWidth="1"/>
-    <col min="8194" max="8194" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8195" max="8195" width="88.5703125" style="9" customWidth="1"/>
-    <col min="8196" max="8196" width="89.28515625" style="9" customWidth="1"/>
-    <col min="8197" max="8197" width="2" style="9" customWidth="1"/>
-    <col min="8198" max="8448" width="9.140625" style="9"/>
-    <col min="8449" max="8449" width="1.5703125" style="9" customWidth="1"/>
-    <col min="8450" max="8450" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8451" max="8451" width="88.5703125" style="9" customWidth="1"/>
-    <col min="8452" max="8452" width="89.28515625" style="9" customWidth="1"/>
-    <col min="8453" max="8453" width="2" style="9" customWidth="1"/>
-    <col min="8454" max="8704" width="9.140625" style="9"/>
-    <col min="8705" max="8705" width="1.5703125" style="9" customWidth="1"/>
-    <col min="8706" max="8706" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8707" max="8707" width="88.5703125" style="9" customWidth="1"/>
-    <col min="8708" max="8708" width="89.28515625" style="9" customWidth="1"/>
-    <col min="8709" max="8709" width="2" style="9" customWidth="1"/>
-    <col min="8710" max="8960" width="9.140625" style="9"/>
-    <col min="8961" max="8961" width="1.5703125" style="9" customWidth="1"/>
-    <col min="8962" max="8962" width="9.28515625" style="9" customWidth="1"/>
-    <col min="8963" max="8963" width="88.5703125" style="9" customWidth="1"/>
-    <col min="8964" max="8964" width="89.28515625" style="9" customWidth="1"/>
-    <col min="8965" max="8965" width="2" style="9" customWidth="1"/>
-    <col min="8966" max="9216" width="9.140625" style="9"/>
-    <col min="9217" max="9217" width="1.5703125" style="9" customWidth="1"/>
-    <col min="9218" max="9218" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9219" max="9219" width="88.5703125" style="9" customWidth="1"/>
-    <col min="9220" max="9220" width="89.28515625" style="9" customWidth="1"/>
-    <col min="9221" max="9221" width="2" style="9" customWidth="1"/>
-    <col min="9222" max="9472" width="9.140625" style="9"/>
-    <col min="9473" max="9473" width="1.5703125" style="9" customWidth="1"/>
-    <col min="9474" max="9474" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9475" max="9475" width="88.5703125" style="9" customWidth="1"/>
-    <col min="9476" max="9476" width="89.28515625" style="9" customWidth="1"/>
-    <col min="9477" max="9477" width="2" style="9" customWidth="1"/>
-    <col min="9478" max="9728" width="9.140625" style="9"/>
-    <col min="9729" max="9729" width="1.5703125" style="9" customWidth="1"/>
-    <col min="9730" max="9730" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9731" max="9731" width="88.5703125" style="9" customWidth="1"/>
-    <col min="9732" max="9732" width="89.28515625" style="9" customWidth="1"/>
-    <col min="9733" max="9733" width="2" style="9" customWidth="1"/>
-    <col min="9734" max="9984" width="9.140625" style="9"/>
-    <col min="9985" max="9985" width="1.5703125" style="9" customWidth="1"/>
-    <col min="9986" max="9986" width="9.28515625" style="9" customWidth="1"/>
-    <col min="9987" max="9987" width="88.5703125" style="9" customWidth="1"/>
-    <col min="9988" max="9988" width="89.28515625" style="9" customWidth="1"/>
-    <col min="9989" max="9989" width="2" style="9" customWidth="1"/>
-    <col min="9990" max="10240" width="9.140625" style="9"/>
-    <col min="10241" max="10241" width="1.5703125" style="9" customWidth="1"/>
-    <col min="10242" max="10242" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10243" max="10243" width="88.5703125" style="9" customWidth="1"/>
-    <col min="10244" max="10244" width="89.28515625" style="9" customWidth="1"/>
-    <col min="10245" max="10245" width="2" style="9" customWidth="1"/>
-    <col min="10246" max="10496" width="9.140625" style="9"/>
-    <col min="10497" max="10497" width="1.5703125" style="9" customWidth="1"/>
-    <col min="10498" max="10498" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10499" max="10499" width="88.5703125" style="9" customWidth="1"/>
-    <col min="10500" max="10500" width="89.28515625" style="9" customWidth="1"/>
-    <col min="10501" max="10501" width="2" style="9" customWidth="1"/>
-    <col min="10502" max="10752" width="9.140625" style="9"/>
-    <col min="10753" max="10753" width="1.5703125" style="9" customWidth="1"/>
-    <col min="10754" max="10754" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10755" max="10755" width="88.5703125" style="9" customWidth="1"/>
-    <col min="10756" max="10756" width="89.28515625" style="9" customWidth="1"/>
-    <col min="10757" max="10757" width="2" style="9" customWidth="1"/>
-    <col min="10758" max="11008" width="9.140625" style="9"/>
-    <col min="11009" max="11009" width="1.5703125" style="9" customWidth="1"/>
-    <col min="11010" max="11010" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11011" max="11011" width="88.5703125" style="9" customWidth="1"/>
-    <col min="11012" max="11012" width="89.28515625" style="9" customWidth="1"/>
-    <col min="11013" max="11013" width="2" style="9" customWidth="1"/>
-    <col min="11014" max="11264" width="9.140625" style="9"/>
-    <col min="11265" max="11265" width="1.5703125" style="9" customWidth="1"/>
-    <col min="11266" max="11266" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11267" max="11267" width="88.5703125" style="9" customWidth="1"/>
-    <col min="11268" max="11268" width="89.28515625" style="9" customWidth="1"/>
-    <col min="11269" max="11269" width="2" style="9" customWidth="1"/>
-    <col min="11270" max="11520" width="9.140625" style="9"/>
-    <col min="11521" max="11521" width="1.5703125" style="9" customWidth="1"/>
-    <col min="11522" max="11522" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11523" max="11523" width="88.5703125" style="9" customWidth="1"/>
-    <col min="11524" max="11524" width="89.28515625" style="9" customWidth="1"/>
-    <col min="11525" max="11525" width="2" style="9" customWidth="1"/>
-    <col min="11526" max="11776" width="9.140625" style="9"/>
-    <col min="11777" max="11777" width="1.5703125" style="9" customWidth="1"/>
-    <col min="11778" max="11778" width="9.28515625" style="9" customWidth="1"/>
-    <col min="11779" max="11779" width="88.5703125" style="9" customWidth="1"/>
-    <col min="11780" max="11780" width="89.28515625" style="9" customWidth="1"/>
-    <col min="11781" max="11781" width="2" style="9" customWidth="1"/>
-    <col min="11782" max="12032" width="9.140625" style="9"/>
-    <col min="12033" max="12033" width="1.5703125" style="9" customWidth="1"/>
-    <col min="12034" max="12034" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12035" max="12035" width="88.5703125" style="9" customWidth="1"/>
-    <col min="12036" max="12036" width="89.28515625" style="9" customWidth="1"/>
-    <col min="12037" max="12037" width="2" style="9" customWidth="1"/>
-    <col min="12038" max="12288" width="9.140625" style="9"/>
-    <col min="12289" max="12289" width="1.5703125" style="9" customWidth="1"/>
-    <col min="12290" max="12290" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12291" max="12291" width="88.5703125" style="9" customWidth="1"/>
-    <col min="12292" max="12292" width="89.28515625" style="9" customWidth="1"/>
-    <col min="12293" max="12293" width="2" style="9" customWidth="1"/>
-    <col min="12294" max="12544" width="9.140625" style="9"/>
-    <col min="12545" max="12545" width="1.5703125" style="9" customWidth="1"/>
-    <col min="12546" max="12546" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12547" max="12547" width="88.5703125" style="9" customWidth="1"/>
-    <col min="12548" max="12548" width="89.28515625" style="9" customWidth="1"/>
-    <col min="12549" max="12549" width="2" style="9" customWidth="1"/>
-    <col min="12550" max="12800" width="9.140625" style="9"/>
-    <col min="12801" max="12801" width="1.5703125" style="9" customWidth="1"/>
-    <col min="12802" max="12802" width="9.28515625" style="9" customWidth="1"/>
-    <col min="12803" max="12803" width="88.5703125" style="9" customWidth="1"/>
-    <col min="12804" max="12804" width="89.28515625" style="9" customWidth="1"/>
-    <col min="12805" max="12805" width="2" style="9" customWidth="1"/>
-    <col min="12806" max="13056" width="9.140625" style="9"/>
-    <col min="13057" max="13057" width="1.5703125" style="9" customWidth="1"/>
-    <col min="13058" max="13058" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13059" max="13059" width="88.5703125" style="9" customWidth="1"/>
-    <col min="13060" max="13060" width="89.28515625" style="9" customWidth="1"/>
-    <col min="13061" max="13061" width="2" style="9" customWidth="1"/>
-    <col min="13062" max="13312" width="9.140625" style="9"/>
-    <col min="13313" max="13313" width="1.5703125" style="9" customWidth="1"/>
-    <col min="13314" max="13314" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13315" max="13315" width="88.5703125" style="9" customWidth="1"/>
-    <col min="13316" max="13316" width="89.28515625" style="9" customWidth="1"/>
-    <col min="13317" max="13317" width="2" style="9" customWidth="1"/>
-    <col min="13318" max="13568" width="9.140625" style="9"/>
-    <col min="13569" max="13569" width="1.5703125" style="9" customWidth="1"/>
-    <col min="13570" max="13570" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13571" max="13571" width="88.5703125" style="9" customWidth="1"/>
-    <col min="13572" max="13572" width="89.28515625" style="9" customWidth="1"/>
-    <col min="13573" max="13573" width="2" style="9" customWidth="1"/>
-    <col min="13574" max="13824" width="9.140625" style="9"/>
-    <col min="13825" max="13825" width="1.5703125" style="9" customWidth="1"/>
-    <col min="13826" max="13826" width="9.28515625" style="9" customWidth="1"/>
-    <col min="13827" max="13827" width="88.5703125" style="9" customWidth="1"/>
-    <col min="13828" max="13828" width="89.28515625" style="9" customWidth="1"/>
-    <col min="13829" max="13829" width="2" style="9" customWidth="1"/>
-    <col min="13830" max="14080" width="9.140625" style="9"/>
-    <col min="14081" max="14081" width="1.5703125" style="9" customWidth="1"/>
-    <col min="14082" max="14082" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14083" max="14083" width="88.5703125" style="9" customWidth="1"/>
-    <col min="14084" max="14084" width="89.28515625" style="9" customWidth="1"/>
-    <col min="14085" max="14085" width="2" style="9" customWidth="1"/>
-    <col min="14086" max="14336" width="9.140625" style="9"/>
-    <col min="14337" max="14337" width="1.5703125" style="9" customWidth="1"/>
-    <col min="14338" max="14338" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14339" max="14339" width="88.5703125" style="9" customWidth="1"/>
-    <col min="14340" max="14340" width="89.28515625" style="9" customWidth="1"/>
-    <col min="14341" max="14341" width="2" style="9" customWidth="1"/>
-    <col min="14342" max="14592" width="9.140625" style="9"/>
-    <col min="14593" max="14593" width="1.5703125" style="9" customWidth="1"/>
-    <col min="14594" max="14594" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14595" max="14595" width="88.5703125" style="9" customWidth="1"/>
-    <col min="14596" max="14596" width="89.28515625" style="9" customWidth="1"/>
-    <col min="14597" max="14597" width="2" style="9" customWidth="1"/>
-    <col min="14598" max="14848" width="9.140625" style="9"/>
-    <col min="14849" max="14849" width="1.5703125" style="9" customWidth="1"/>
-    <col min="14850" max="14850" width="9.28515625" style="9" customWidth="1"/>
-    <col min="14851" max="14851" width="88.5703125" style="9" customWidth="1"/>
-    <col min="14852" max="14852" width="89.28515625" style="9" customWidth="1"/>
-    <col min="14853" max="14853" width="2" style="9" customWidth="1"/>
-    <col min="14854" max="15104" width="9.140625" style="9"/>
-    <col min="15105" max="15105" width="1.5703125" style="9" customWidth="1"/>
-    <col min="15106" max="15106" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15107" max="15107" width="88.5703125" style="9" customWidth="1"/>
-    <col min="15108" max="15108" width="89.28515625" style="9" customWidth="1"/>
-    <col min="15109" max="15109" width="2" style="9" customWidth="1"/>
-    <col min="15110" max="15360" width="9.140625" style="9"/>
-    <col min="15361" max="15361" width="1.5703125" style="9" customWidth="1"/>
-    <col min="15362" max="15362" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15363" max="15363" width="88.5703125" style="9" customWidth="1"/>
-    <col min="15364" max="15364" width="89.28515625" style="9" customWidth="1"/>
-    <col min="15365" max="15365" width="2" style="9" customWidth="1"/>
-    <col min="15366" max="15616" width="9.140625" style="9"/>
-    <col min="15617" max="15617" width="1.5703125" style="9" customWidth="1"/>
-    <col min="15618" max="15618" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15619" max="15619" width="88.5703125" style="9" customWidth="1"/>
-    <col min="15620" max="15620" width="89.28515625" style="9" customWidth="1"/>
-    <col min="15621" max="15621" width="2" style="9" customWidth="1"/>
-    <col min="15622" max="15872" width="9.140625" style="9"/>
-    <col min="15873" max="15873" width="1.5703125" style="9" customWidth="1"/>
-    <col min="15874" max="15874" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15875" max="15875" width="88.5703125" style="9" customWidth="1"/>
-    <col min="15876" max="15876" width="89.28515625" style="9" customWidth="1"/>
-    <col min="15877" max="15877" width="2" style="9" customWidth="1"/>
-    <col min="15878" max="16128" width="9.140625" style="9"/>
-    <col min="16129" max="16129" width="1.5703125" style="9" customWidth="1"/>
-    <col min="16130" max="16130" width="9.28515625" style="9" customWidth="1"/>
-    <col min="16131" max="16131" width="88.5703125" style="9" customWidth="1"/>
-    <col min="16132" max="16132" width="89.28515625" style="9" customWidth="1"/>
-    <col min="16133" max="16133" width="2" style="9" customWidth="1"/>
-    <col min="16134" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="2.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="2" style="38" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="70" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:16" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="C2" s="65"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="2:9" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="73" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="68" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="67" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="15"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="15"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="67" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="68" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="69" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="67" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="51" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="67" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="61"/>
+      <c r="D41" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="75" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="80" t="s">
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="77"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="70"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79" t="s">
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="70"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="41" t="s">
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="70"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="70"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="71"/>
+      <c r="C53" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="40" t="s">
+      <c r="E53" s="36"/>
+      <c r="F53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="31" t="s">
+      <c r="G53" s="37"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="26"/>
-    </row>
-    <row r="57" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="26"/>
-    </row>
-    <row r="58" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="26"/>
-    </row>
-    <row r="59" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="26"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="26"/>
-    </row>
-    <row r="60" spans="1:11" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="19" t="s">
+      <c r="C54" s="27"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="24"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="31"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="13"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="22"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="13"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="13"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="32"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="22"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="13"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="8"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="22"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="13"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="26"/>
-    </row>
-    <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="12"/>
-      <c r="D61" s="20"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="20"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-    </row>
-    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="22"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="2:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="22"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="12"/>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="12"/>
-      <c r="D67" s="20"/>
-    </row>
-    <row r="68" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="20"/>
-    </row>
-    <row r="69" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="22"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="22"/>
-      <c r="C76" s="9"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="10"/>
+      <c r="D61" s="14"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="14"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B62" s="23"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="23"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="2:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="10"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="10"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+      <c r="C76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A1:A1048576"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G40"/>
+    <mergeCell ref="B34:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G47"/>
+    <mergeCell ref="B42:C47"/>
+    <mergeCell ref="D12:G18"/>
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G25"/>
+    <mergeCell ref="B20:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B34:C40"/>
+    <mergeCell ref="D26:G32"/>
     <mergeCell ref="B27:C32"/>
-    <mergeCell ref="B20:C25"/>
-    <mergeCell ref="B42:C47"/>
+    <mergeCell ref="A1:A1048576"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G11"/>
     <mergeCell ref="B7:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="D1:G4"/>
-    <mergeCell ref="D19:G25"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="D33:G40"/>
-    <mergeCell ref="D41:G47"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G11"/>
-    <mergeCell ref="D12:G18"/>
   </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0.11811023622047244" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="68" min="1" max="5" man="1"/>
-  </rowBreaks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.29.3.141\c$\inetpub\wwwroot\program-partlist\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62680D3-38D3-49FE-9902-FF75140B22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A318896-5644-4F7B-93C9-D94323367D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -642,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -764,18 +764,48 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -803,67 +833,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -913,8 +919,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8244111" y="244928"/>
-          <a:ext cx="5012871" cy="895350"/>
+          <a:off x="8228236" y="216353"/>
+          <a:ext cx="5012871" cy="1133475"/>
           <a:chOff x="8590186" y="149679"/>
           <a:chExt cx="4540703" cy="1340303"/>
         </a:xfrm>
@@ -4343,10 +4349,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3EFCFA-79D8-4EF9-BB37-3D635928219F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,7 +4371,7 @@
     <col min="9" max="9" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="39"/>
@@ -4370,17 +4379,17 @@
       <c r="F1" s="39"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="42"/>
     </row>
-    <row r="3" spans="2:9" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -4390,95 +4399,95 @@
       <c r="F3" s="41"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="67" t="s">
+    <row r="4" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
       <c r="G4" s="44"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+    <row r="6" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+    <row r="7" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+    <row r="8" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+    <row r="9" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+    <row r="10" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
+    <row r="11" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="61" t="s">
+    <row r="12" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="45" t="s">
         <v>21</v>
       </c>
@@ -4487,65 +4496,65 @@
       <c r="G12" s="45"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+    <row r="13" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
+    <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+    <row r="15" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+    <row r="16" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
+    <row r="17" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
+    <row r="18" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="61" t="s">
+    <row r="19" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="45" t="s">
         <v>22</v>
       </c>
@@ -4554,132 +4563,132 @@
       <c r="G19" s="45"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+    <row r="20" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+    <row r="21" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+    <row r="22" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+    <row r="23" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
+    <row r="24" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
+    <row r="25" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="63" t="s">
+    <row r="27" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
+    <row r="28" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
+    <row r="29" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+    <row r="30" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+    <row r="31" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
+    <row r="32" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
+    <row r="33" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="45" t="s">
         <v>24</v>
       </c>
@@ -4688,74 +4697,74 @@
       <c r="G33" s="45"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
+    <row r="34" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
       <c r="G34" s="45"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
+    <row r="35" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
+    <row r="36" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
       <c r="G36" s="45"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
+    <row r="37" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
       <c r="G37" s="45"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
+    <row r="38" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
       <c r="G38" s="45"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
+    <row r="39" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45"/>
       <c r="G39" s="45"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
+    <row r="40" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="61" t="s">
+    <row r="41" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="61"/>
+      <c r="C41" s="48"/>
       <c r="D41" s="45" t="s">
         <v>23</v>
       </c>
@@ -4764,89 +4773,89 @@
       <c r="G41" s="45"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+    <row r="42" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
+    <row r="43" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
+    <row r="44" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
       <c r="G44" s="45"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
+    <row r="45" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+    <row r="46" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
       <c r="G46" s="45"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
+    <row r="47" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+    <row r="48" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="77"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="70"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="74" t="s">
+    <row r="49" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="70"/>
-      <c r="C50" s="72"/>
+    <row r="50" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="73" t="s">
         <v>16</v>
       </c>
@@ -4855,26 +4864,26 @@
       <c r="G50" s="73"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="70"/>
-      <c r="C51" s="72"/>
+    <row r="51" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="51"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
       <c r="F51" s="73"/>
       <c r="G51" s="73"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="70"/>
-      <c r="C52" s="72"/>
+    <row r="52" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="51"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
       <c r="F52" s="73"/>
       <c r="G52" s="73"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="71"/>
+    <row r="53" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="52"/>
       <c r="C53" s="35" t="s">
         <v>19</v>
       </c>
@@ -4888,15 +4897,15 @@
       <c r="G53" s="37"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="27"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
       <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -4985,8 +4994,8 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -5000,29 +5009,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G40"/>
-    <mergeCell ref="B34:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G47"/>
-    <mergeCell ref="B42:C47"/>
-    <mergeCell ref="D12:G18"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G25"/>
-    <mergeCell ref="B20:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="A1:A1048576"/>
-    <mergeCell ref="D1:G4"/>
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
@@ -5031,9 +5017,37 @@
     <mergeCell ref="D6:G11"/>
     <mergeCell ref="B7:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="A1:A1048576"/>
+    <mergeCell ref="D1:G4"/>
+    <mergeCell ref="D12:G18"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G25"/>
+    <mergeCell ref="B20:C25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G40"/>
+    <mergeCell ref="B34:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G47"/>
+    <mergeCell ref="B42:C47"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C52"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="50" max="16383" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.29.3.141\c$\inetpub\wwwroot\program-partlist\Content\Uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A318896-5644-4F7B-93C9-D94323367D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88229B65-36EF-43AC-A81F-6FFFE845C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Production Patrol Inspection Report</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Date Conducted:</t>
+  </si>
+  <si>
+    <t>sdad</t>
+  </si>
+  <si>
+    <t>adad</t>
   </si>
 </sst>
 </file>
@@ -743,94 +749,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -862,14 +835,47 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4355,7 +4361,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B7" sqref="B7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,40 +4380,40 @@
     <row r="1" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,473 +4423,477 @@
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="45" t="s">
+      <c r="C33" s="56"/>
+      <c r="D33" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="B42" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="72" t="s">
+      <c r="B49" s="77"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="51"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="73" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="51"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="52"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="35" t="s">
         <v>19</v>
       </c>
@@ -4902,10 +4912,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="27"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="76"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
       <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -4994,8 +5004,8 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -5009,21 +5019,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G11"/>
-    <mergeCell ref="B7:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D54:G54"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="D1:G4"/>
     <mergeCell ref="D12:G18"/>
@@ -5040,6 +5035,21 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="C48:C52"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G11"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88229B65-36EF-43AC-A81F-6FFFE845C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A39B10-F490-4266-B4F4-9A6619AF97BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Production Patrol Inspection Report</t>
   </si>
@@ -154,15 +154,6 @@
     <t xml:space="preserve">Dept. /Section Inspected: </t>
   </si>
   <si>
-    <t>asdsds</t>
-  </si>
-  <si>
-    <t>dsadsadasd</t>
-  </si>
-  <si>
-    <t>adasdsadsasa</t>
-  </si>
-  <si>
     <t>Registration No: asdsad</t>
   </si>
   <si>
@@ -172,21 +163,6 @@
     <t xml:space="preserve">  Manager: </t>
   </si>
   <si>
-    <t>ssdsdsss</t>
-  </si>
-  <si>
-    <t>asdsd</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inspector: </t>
   </si>
   <si>
@@ -194,12 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Date Conducted:</t>
-  </si>
-  <si>
-    <t>sdad</t>
-  </si>
-  <si>
-    <t>adad</t>
   </si>
 </sst>
 </file>
@@ -648,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -749,6 +719,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -796,15 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -834,48 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4360,8 +4324,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4380,40 +4344,40 @@
     <row r="1" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
-        <v>17</v>
+      <c r="B2" s="54" t="s">
+        <v>14</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,486 +4387,466 @@
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="79" t="s">
-        <v>14</v>
+      <c r="C48" s="53"/>
+      <c r="D48" s="70" t="s">
+        <v>19</v>
       </c>
-      <c r="D48" s="58" t="s">
-        <v>27</v>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="73" t="s">
+        <v>18</v>
       </c>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="77"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="62" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="51"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="51"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="52"/>
+      <c r="C53" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="77"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="77"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="78"/>
-      <c r="C53" s="35" t="s">
-        <v>19</v>
-      </c>
       <c r="D53" s="30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E53" s="36"/>
       <c r="F53" s="34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G53" s="37"/>
       <c r="I53" s="12"/>
@@ -4912,10 +4856,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="27"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="77"/>
       <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -5004,8 +4948,8 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -5019,6 +4963,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G11"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D54:G54"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="D1:G4"/>
     <mergeCell ref="D12:G18"/>
@@ -5035,21 +4994,6 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="C48:C52"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G11"/>
-    <mergeCell ref="B7:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
+++ b/ProgramPartListWeb/Content/Uploads/PGFY-00031FORM_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllSystems\P1saproject\ProgramPartListWeb\Content\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A39B10-F490-4266-B4F4-9A6619AF97BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F36C8-1764-4CCF-BA8D-B115F9182D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFE99378-DD6B-4ABB-94CE-EAE1FDD2D083}"/>
   </bookViews>
@@ -719,98 +719,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -840,6 +804,42 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -878,10 +878,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
+        <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF9CD88B-496F-480E-95EE-D4A4989C76BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F9527A-7567-6666-1AB3-C2939F200E88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,444 +889,380 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8228236" y="216353"/>
-          <a:ext cx="5012871" cy="1133475"/>
-          <a:chOff x="8590186" y="149679"/>
+          <a:off x="8228236" y="211310"/>
+          <a:ext cx="5018474" cy="1130674"/>
+          <a:chOff x="8168368" y="163286"/>
           <a:chExt cx="4540703" cy="1340303"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2">
+          <xdr:cNvPr id="5" name="Group 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F9527A-7567-6666-1AB3-C2939F200E88}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53038EBC-793D-4957-A783-16D429164C7E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
+          <xdr:cNvGrpSpPr>
+            <a:grpSpLocks/>
+          </xdr:cNvGrpSpPr>
         </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+        <xdr:grpSpPr bwMode="auto">
           <a:xfrm>
-            <a:off x="8590186" y="149679"/>
+            <a:off x="8168368" y="163286"/>
             <a:ext cx="4540703" cy="1340303"/>
-            <a:chOff x="8168368" y="163286"/>
-            <a:chExt cx="4540703" cy="1340303"/>
+            <a:chOff x="1412" y="312"/>
+            <a:chExt cx="476" cy="150"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="5" name="Group 4">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="Rectangle 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53038EBC-793D-4957-A783-16D429164C7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1334A72A-62CB-5E73-CA24-8FD5DF0F18BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGrpSpPr>
-              <a:grpSpLocks/>
-            </xdr:cNvGrpSpPr>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr bwMode="auto">
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="8168368" y="163286"/>
-              <a:ext cx="4540703" cy="1340303"/>
-              <a:chOff x="1412" y="312"/>
-              <a:chExt cx="476" cy="150"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="Rectangle 7">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1334A72A-62CB-5E73-CA24-8FD5DF0F18BC}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr>
-                <a:spLocks noChangeArrowheads="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr bwMode="auto">
-              <a:xfrm>
-                <a:off x="1412" y="312"/>
-                <a:ext cx="476" cy="150"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-            </xdr:spPr>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="Rectangle 8">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF0F84F-958E-D672-D974-C9C106E8E299}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr>
-                <a:spLocks noChangeArrowheads="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr bwMode="auto">
-              <a:xfrm>
-                <a:off x="1413" y="314"/>
-                <a:ext cx="158" cy="147"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>Division Manager</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="Rectangle 9">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7761FF-5C8D-8465-F5C8-73C5E3B9C455}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr>
-                <a:spLocks noChangeArrowheads="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr bwMode="auto">
-              <a:xfrm>
-                <a:off x="1571" y="314"/>
-                <a:ext cx="158" cy="147"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>Department Manage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>r</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="11" name="Rectangle 10">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E805598D-FF1A-A4F2-E320-F241904C4036}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr>
-                <a:spLocks noChangeArrowheads="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr bwMode="auto">
-              <a:xfrm>
-                <a:off x="1729" y="314"/>
-                <a:ext cx="158" cy="147"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                    <a:cs typeface="Times New Roman"/>
-                  </a:rPr>
-                  <a:t>SV / JS / L</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="12" name="Line 7">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083B0199-1C3F-31BD-FF51-CBD7E30FD5A0}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr>
-                <a:spLocks noChangeShapeType="1"/>
-              </xdr:cNvSpPr>
-            </xdr:nvSpPr>
-            <xdr:spPr bwMode="auto">
-              <a:xfrm>
-                <a:off x="1412" y="421"/>
-                <a:ext cx="475" cy="0"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-              <a:extLst>
-                <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                  <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                    <a:noFill/>
-                  </a14:hiddenFill>
-                </a:ext>
-              </a:extLst>
-            </xdr:spPr>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCB1CB3-F3B6-D5CD-1086-22BD63CAC42C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8477250" y="870856"/>
-              <a:ext cx="917111" cy="280205"/>
+              <a:off x="1412" y="312"/>
+              <a:ext cx="476" cy="150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="Rectangle 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF0F84F-958E-D672-D974-C9C106E8E299}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1413" y="314"/>
+              <a:ext cx="158" cy="147"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
               <a:r>
-                <a:rPr lang="en-PH" sz="1100"/>
-                <a:t>C.</a:t>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:rPr>
+                <a:t>Division Manager</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="en-PH" sz="1100" baseline="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-PH" sz="1200" baseline="0"/>
-                <a:t>VALDIVIA</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-PH" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
+            <xdr:cNvPr id="10" name="Rectangle 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D22C00B-4C31-AE39-FFC6-1A7C79616D81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7761FF-5C8D-8465-F5C8-73C5E3B9C455}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10112827" y="859971"/>
-              <a:ext cx="752642" cy="264560"/>
+              <a:off x="1571" y="314"/>
+              <a:ext cx="158" cy="147"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
               <a:r>
-                <a:rPr lang="en-PH" sz="1100"/>
-                <a:t>L</a:t>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:rPr>
+                <a:t>Department Manage</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-PH" sz="1100" baseline="0"/>
-                <a:t> .A DATU</a:t>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:rPr>
+                <a:t>r</a:t>
               </a:r>
-              <a:endParaRPr lang="en-PH" sz="1100"/>
             </a:p>
           </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Rectangle 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E805598D-FF1A-A4F2-E320-F241904C4036}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeArrowheads="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1729" y="314"/>
+              <a:ext cx="158" cy="147"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="0" rIns="27432" bIns="22860" anchor="b" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman"/>
+                  <a:cs typeface="Times New Roman"/>
+                </a:rPr>
+                <a:t>SV / JS / L</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="Line 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083B0199-1C3F-31BD-FF51-CBD7E30FD5A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeShapeType="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1412" y="421"/>
+              <a:ext cx="475" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
         </xdr:sp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Line 8">
+          <xdr:cNvPr id="6" name="TextBox 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A566871D-0075-F131-9123-6D06AF251D49}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCB1CB3-F3B6-D5CD-1086-22BD63CAC42C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeShapeType="1"/>
-          </xdr:cNvSpPr>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm flipH="1">
-            <a:off x="11661321" y="182338"/>
-            <a:ext cx="1421948" cy="919842"/>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8477250" y="870856"/>
+            <a:ext cx="917111" cy="280205"/>
           </a:xfrm>
-          <a:prstGeom prst="line">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:noFill/>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
         </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-PH" sz="1100"/>
+              <a:t>C.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-PH" sz="1200" baseline="0"/>
+              <a:t>VALDIVIA</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-PH" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D22C00B-4C31-AE39-FFC6-1A7C79616D81}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9879626" y="859972"/>
+            <a:ext cx="1146913" cy="313610"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-PH" sz="1100"/>
+              <a:t>Neil Mark Almazan</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
@@ -1334,15 +1270,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>189140</xdr:colOff>
+      <xdr:colOff>133110</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>527407</xdr:rowOff>
+      <xdr:rowOff>661878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>311606</xdr:rowOff>
+      <xdr:colOff>858370</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1357,8 +1293,200 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7809140" y="18815407"/>
-          <a:ext cx="725260" cy="489049"/>
+          <a:off x="7753110" y="19241231"/>
+          <a:ext cx="725260" cy="490170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1255059</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>251094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Department">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BBFC6A-489A-4D2C-927B-4E9151945A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10331825" y="268941"/>
+          <a:ext cx="840440" cy="620888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2046195</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2969558</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>358589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Supervisor">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08210C20-AE75-4B25-B394-6B88A524184C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963401" y="320488"/>
+          <a:ext cx="923363" cy="676836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>965948</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>735105</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>309283</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Division">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F345C5F9-D71B-4577-8F26-EB56DFB04D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585948" y="271182"/>
+          <a:ext cx="923363" cy="676836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4324,8 +4452,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:G47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,40 +4472,40 @@
     <row r="1" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -4387,457 +4515,457 @@
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="2:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="70" t="s">
+      <c r="C48" s="77"/>
+      <c r="D48" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="73" t="s">
+      <c r="B49" s="75"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="2:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="51"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="51"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="52"/>
+      <c r="B53" s="76"/>
       <c r="C53" s="35" t="s">
         <v>16</v>
       </c>
@@ -4856,10 +4984,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="27"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
       <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -4948,8 +5076,8 @@
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -4963,21 +5091,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G11"/>
-    <mergeCell ref="B7:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G32"/>
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G52"/>
-    <mergeCell ref="D54:G54"/>
     <mergeCell ref="A1:A1048576"/>
     <mergeCell ref="D1:G4"/>
     <mergeCell ref="D12:G18"/>
@@ -4994,6 +5107,21 @@
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B48:B53"/>
     <mergeCell ref="C48:C52"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G11"/>
+    <mergeCell ref="B7:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G32"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G52"/>
+    <mergeCell ref="D54:G54"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
